--- a/game/【箱庭タウンズ】専門街逆引き.xlsx
+++ b/game/【箱庭タウンズ】専門街逆引き.xlsx
@@ -1966,79 +1966,7 @@
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC5D9F1"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC5D9F1"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC5D9F1"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2232,7 +2160,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="逆引き" displayName="逆引き" ref="C1:K554" totalsRowShown="0">
   <autoFilter ref="C1:K554">
-    <filterColumn colId="0"/>
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
     <filterColumn colId="3"/>
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
@@ -2247,22 +2177,22 @@
     <tableColumn id="1" name="施設名"/>
     <tableColumn id="2" name="idx"/>
     <tableColumn id="3" name="専門街"/>
-    <tableColumn id="4" name="施設1" dataDxfId="25">
+    <tableColumn id="4" name="施設1" dataDxfId="16">
       <calculatedColumnFormula>VLOOKUP(逆引き[[#This Row],[専門街]],専門街[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="施設2" dataDxfId="24">
+    <tableColumn id="5" name="施設2" dataDxfId="15">
       <calculatedColumnFormula>VLOOKUP(逆引き[[#This Row],[専門街]],専門街[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="施設3" dataDxfId="23">
+    <tableColumn id="6" name="施設3" dataDxfId="14">
       <calculatedColumnFormula>VLOOKUP(逆引き[[#This Row],[専門街]],専門街[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="地価上昇率" dataDxfId="22">
+    <tableColumn id="9" name="地価上昇率" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP(逆引き[[#This Row],[専門街]],専門街[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="価格上昇率" dataDxfId="21">
+    <tableColumn id="10" name="価格上昇率" dataDxfId="12">
       <calculatedColumnFormula>VLOOKUP(逆引き[[#This Row],[専門街]],専門街[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="合計" dataDxfId="20">
+    <tableColumn id="8" name="合計" dataDxfId="11">
       <calculatedColumnFormula>VLOOKUP(逆引き[[#This Row],[専門街]],専門街[],7,FALSE)&amp;"マス"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2327,9 +2257,9 @@
     <tableColumn id="2" name="施設1"/>
     <tableColumn id="3" name="施設2"/>
     <tableColumn id="4" name="施設3"/>
-    <tableColumn id="5" name="地価上昇値" dataDxfId="19"/>
-    <tableColumn id="6" name="商品価格上昇値" dataDxfId="18"/>
-    <tableColumn id="7" name="合計サイズ" dataDxfId="17">
+    <tableColumn id="5" name="地価上昇値" dataDxfId="10"/>
+    <tableColumn id="6" name="商品価格上昇値" dataDxfId="9"/>
+    <tableColumn id="7" name="合計サイズ" dataDxfId="8">
       <calculatedColumnFormula>VLOOKUP(専門街[[#This Row],[施設1]],施設サイズ[],3,FALSE)+VLOOKUP(専門街[[#This Row],[施設2]],施設サイズ[],3,FALSE)+VLOOKUP(専門街[[#This Row],[施設3]],施設サイズ[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2338,7 +2268,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="施設サイズ" displayName="施設サイズ" ref="A1:C166" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="施設サイズ" displayName="施設サイズ" ref="A1:C166" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
   <autoFilter ref="A1:C166">
     <filterColumn colId="2"/>
   </autoFilter>
@@ -2346,9 +2276,9 @@
     <sortCondition ref="A1:A166"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="施設名" dataDxfId="12"/>
-    <tableColumn id="2" name="サイズ" dataDxfId="11"/>
-    <tableColumn id="3" name="面積" dataDxfId="10">
+    <tableColumn id="1" name="施設名" dataDxfId="3"/>
+    <tableColumn id="2" name="サイズ" dataDxfId="2"/>
+    <tableColumn id="3" name="面積" dataDxfId="1">
       <calculatedColumnFormula>LEFT(施設サイズ[[#This Row],[サイズ]],1)*RIGHT(施設サイズ[[#This Row],[サイズ]],1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2647,7 +2577,7 @@
   <dimension ref="A1:K554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2951,7 +2881,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="C9" t="s">
         <v>85</v>
       </c>
@@ -2986,7 +2916,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="C10" t="s">
         <v>40</v>
       </c>
@@ -3021,7 +2951,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="C11" t="s">
         <v>40</v>
       </c>
@@ -3056,7 +2986,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="C12" t="s">
         <v>289</v>
       </c>
@@ -3091,7 +3021,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="C13" t="s">
         <v>289</v>
       </c>
@@ -3126,7 +3056,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="C14" t="s">
         <v>62</v>
       </c>
@@ -3161,7 +3091,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="C15" t="s">
         <v>185</v>
       </c>
@@ -3196,7 +3126,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="C16" t="s">
         <v>185</v>
       </c>
@@ -3231,7 +3161,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="C17" t="s">
         <v>185</v>
       </c>
@@ -3266,7 +3196,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="C18" t="s">
         <v>185</v>
       </c>
@@ -3301,7 +3231,7 @@
         <v>32マス</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="C19" t="s">
         <v>28</v>
       </c>
@@ -3336,7 +3266,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="C20" t="s">
         <v>28</v>
       </c>
@@ -3371,7 +3301,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="C21" t="s">
         <v>28</v>
       </c>
@@ -3406,7 +3336,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="C22" t="s">
         <v>28</v>
       </c>
@@ -3441,7 +3371,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -3476,7 +3406,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -3511,7 +3441,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -3546,7 +3476,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -3581,7 +3511,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="C27" t="s">
         <v>208</v>
       </c>
@@ -3616,7 +3546,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="C28" t="s">
         <v>208</v>
       </c>
@@ -3651,7 +3581,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="C29" t="s">
         <v>208</v>
       </c>
@@ -3686,7 +3616,7 @@
         <v>25マス</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="11"/>
       <c r="C30" t="s">
         <v>208</v>
@@ -3722,7 +3652,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="C31" t="s">
         <v>171</v>
       </c>
@@ -3757,7 +3687,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1">
       <c r="C32" t="s">
         <v>171</v>
       </c>
@@ -3792,7 +3722,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="33" spans="3:11">
+    <row r="33" spans="3:11" hidden="1">
       <c r="C33" t="s">
         <v>171</v>
       </c>
@@ -3827,7 +3757,7 @@
         <v>20マス</v>
       </c>
     </row>
-    <row r="34" spans="3:11">
+    <row r="34" spans="3:11" hidden="1">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -3862,7 +3792,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="35" spans="3:11">
+    <row r="35" spans="3:11" hidden="1">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -3897,7 +3827,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="36" spans="3:11">
+    <row r="36" spans="3:11" hidden="1">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -3932,7 +3862,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="37" spans="3:11">
+    <row r="37" spans="3:11" hidden="1">
       <c r="C37" t="s">
         <v>168</v>
       </c>
@@ -3967,7 +3897,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="38" spans="3:11">
+    <row r="38" spans="3:11" hidden="1">
       <c r="C38" t="s">
         <v>168</v>
       </c>
@@ -4002,7 +3932,7 @@
         <v>60マス</v>
       </c>
     </row>
-    <row r="39" spans="3:11">
+    <row r="39" spans="3:11" hidden="1">
       <c r="C39" t="s">
         <v>168</v>
       </c>
@@ -4037,7 +3967,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="40" spans="3:11">
+    <row r="40" spans="3:11" hidden="1">
       <c r="C40" t="s">
         <v>168</v>
       </c>
@@ -4072,7 +4002,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="41" spans="3:11">
+    <row r="41" spans="3:11" hidden="1">
       <c r="C41" t="s">
         <v>194</v>
       </c>
@@ -4107,7 +4037,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="42" spans="3:11">
+    <row r="42" spans="3:11" hidden="1">
       <c r="C42" t="s">
         <v>194</v>
       </c>
@@ -4142,7 +4072,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="43" spans="3:11">
+    <row r="43" spans="3:11" hidden="1">
       <c r="C43" t="s">
         <v>194</v>
       </c>
@@ -4177,7 +4107,7 @@
         <v>25マス</v>
       </c>
     </row>
-    <row r="44" spans="3:11">
+    <row r="44" spans="3:11" hidden="1">
       <c r="C44" t="s">
         <v>194</v>
       </c>
@@ -4212,7 +4142,7 @@
         <v>68マス</v>
       </c>
     </row>
-    <row r="45" spans="3:11">
+    <row r="45" spans="3:11" hidden="1">
       <c r="C45" t="s">
         <v>194</v>
       </c>
@@ -4247,7 +4177,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="46" spans="3:11">
+    <row r="46" spans="3:11" hidden="1">
       <c r="C46" t="s">
         <v>291</v>
       </c>
@@ -4282,7 +4212,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="47" spans="3:11">
+    <row r="47" spans="3:11" hidden="1">
       <c r="C47" t="s">
         <v>269</v>
       </c>
@@ -4317,7 +4247,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="48" spans="3:11">
+    <row r="48" spans="3:11" hidden="1">
       <c r="C48" t="s">
         <v>269</v>
       </c>
@@ -4352,7 +4282,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="49" spans="3:11">
+    <row r="49" spans="3:11" hidden="1">
       <c r="C49" t="s">
         <v>294</v>
       </c>
@@ -4387,7 +4317,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="50" spans="3:11">
+    <row r="50" spans="3:11" hidden="1">
       <c r="C50" t="s">
         <v>294</v>
       </c>
@@ -4422,7 +4352,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="51" spans="3:11">
+    <row r="51" spans="3:11" hidden="1">
       <c r="C51" t="s">
         <v>189</v>
       </c>
@@ -4457,7 +4387,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="52" spans="3:11">
+    <row r="52" spans="3:11" hidden="1">
       <c r="C52" t="s">
         <v>189</v>
       </c>
@@ -4492,7 +4422,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="53" spans="3:11">
+    <row r="53" spans="3:11" hidden="1">
       <c r="C53" t="s">
         <v>189</v>
       </c>
@@ -4527,7 +4457,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="54" spans="3:11">
+    <row r="54" spans="3:11" hidden="1">
       <c r="C54" t="s">
         <v>189</v>
       </c>
@@ -4562,7 +4492,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="55" spans="3:11">
+    <row r="55" spans="3:11" hidden="1">
       <c r="C55" t="s">
         <v>180</v>
       </c>
@@ -4597,7 +4527,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="56" spans="3:11">
+    <row r="56" spans="3:11" hidden="1">
       <c r="C56" t="s">
         <v>180</v>
       </c>
@@ -4632,7 +4562,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="57" spans="3:11">
+    <row r="57" spans="3:11" hidden="1">
       <c r="C57" t="s">
         <v>180</v>
       </c>
@@ -4667,7 +4597,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="58" spans="3:11">
+    <row r="58" spans="3:11" hidden="1">
       <c r="C58" t="s">
         <v>180</v>
       </c>
@@ -4702,7 +4632,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="59" spans="3:11">
+    <row r="59" spans="3:11" hidden="1">
       <c r="C59" t="s">
         <v>180</v>
       </c>
@@ -4737,7 +4667,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="60" spans="3:11">
+    <row r="60" spans="3:11" hidden="1">
       <c r="C60" t="s">
         <v>275</v>
       </c>
@@ -4772,7 +4702,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="61" spans="3:11">
+    <row r="61" spans="3:11" hidden="1">
       <c r="C61" t="s">
         <v>275</v>
       </c>
@@ -4807,7 +4737,7 @@
         <v>33マス</v>
       </c>
     </row>
-    <row r="62" spans="3:11">
+    <row r="62" spans="3:11" hidden="1">
       <c r="C62" t="s">
         <v>125</v>
       </c>
@@ -4842,7 +4772,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="63" spans="3:11">
+    <row r="63" spans="3:11" hidden="1">
       <c r="C63" t="s">
         <v>125</v>
       </c>
@@ -4877,7 +4807,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="64" spans="3:11">
+    <row r="64" spans="3:11" hidden="1">
       <c r="C64" t="s">
         <v>125</v>
       </c>
@@ -4912,7 +4842,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="65" spans="3:11">
+    <row r="65" spans="3:11" hidden="1">
       <c r="C65" t="s">
         <v>125</v>
       </c>
@@ -4947,7 +4877,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="66" spans="3:11">
+    <row r="66" spans="3:11" hidden="1">
       <c r="C66" t="s">
         <v>296</v>
       </c>
@@ -4982,7 +4912,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="67" spans="3:11">
+    <row r="67" spans="3:11" hidden="1">
       <c r="C67" t="s">
         <v>201</v>
       </c>
@@ -5017,7 +4947,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="68" spans="3:11">
+    <row r="68" spans="3:11" hidden="1">
       <c r="C68" t="s">
         <v>201</v>
       </c>
@@ -5052,7 +4982,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="69" spans="3:11">
+    <row r="69" spans="3:11" hidden="1">
       <c r="C69" t="s">
         <v>81</v>
       </c>
@@ -5087,7 +5017,7 @@
         <v>44マス</v>
       </c>
     </row>
-    <row r="70" spans="3:11">
+    <row r="70" spans="3:11" hidden="1">
       <c r="C70" t="s">
         <v>81</v>
       </c>
@@ -5122,7 +5052,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="71" spans="3:11">
+    <row r="71" spans="3:11" hidden="1">
       <c r="C71" t="s">
         <v>81</v>
       </c>
@@ -5157,7 +5087,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="72" spans="3:11">
+    <row r="72" spans="3:11" hidden="1">
       <c r="C72" t="s">
         <v>81</v>
       </c>
@@ -5192,7 +5122,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="73" spans="3:11">
+    <row r="73" spans="3:11" hidden="1">
       <c r="C73" t="s">
         <v>81</v>
       </c>
@@ -5227,7 +5157,7 @@
         <v>8マス</v>
       </c>
     </row>
-    <row r="74" spans="3:11">
+    <row r="74" spans="3:11" hidden="1">
       <c r="C74" t="s">
         <v>6</v>
       </c>
@@ -5262,7 +5192,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="75" spans="3:11">
+    <row r="75" spans="3:11" hidden="1">
       <c r="C75" t="s">
         <v>6</v>
       </c>
@@ -5297,7 +5227,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="76" spans="3:11">
+    <row r="76" spans="3:11" hidden="1">
       <c r="C76" t="s">
         <v>6</v>
       </c>
@@ -5332,7 +5262,7 @@
         <v>44マス</v>
       </c>
     </row>
-    <row r="77" spans="3:11">
+    <row r="77" spans="3:11" hidden="1">
       <c r="C77" t="s">
         <v>6</v>
       </c>
@@ -5367,7 +5297,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="78" spans="3:11">
+    <row r="78" spans="3:11" hidden="1">
       <c r="C78" t="s">
         <v>5</v>
       </c>
@@ -5402,7 +5332,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="79" spans="3:11">
+    <row r="79" spans="3:11" hidden="1">
       <c r="C79" t="s">
         <v>5</v>
       </c>
@@ -5437,7 +5367,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="80" spans="3:11">
+    <row r="80" spans="3:11" hidden="1">
       <c r="C80" t="s">
         <v>5</v>
       </c>
@@ -5472,7 +5402,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="81" spans="3:11">
+    <row r="81" spans="3:11" hidden="1">
       <c r="C81" t="s">
         <v>5</v>
       </c>
@@ -5507,7 +5437,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="82" spans="3:11">
+    <row r="82" spans="3:11" hidden="1">
       <c r="C82" t="s">
         <v>5</v>
       </c>
@@ -5542,7 +5472,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="83" spans="3:11">
+    <row r="83" spans="3:11" hidden="1">
       <c r="C83" t="s">
         <v>27</v>
       </c>
@@ -5577,7 +5507,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="84" spans="3:11">
+    <row r="84" spans="3:11" hidden="1">
       <c r="C84" t="s">
         <v>27</v>
       </c>
@@ -5612,7 +5542,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="85" spans="3:11">
+    <row r="85" spans="3:11" hidden="1">
       <c r="C85" t="s">
         <v>27</v>
       </c>
@@ -5647,7 +5577,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="86" spans="3:11">
+    <row r="86" spans="3:11" hidden="1">
       <c r="C86" t="s">
         <v>27</v>
       </c>
@@ -5682,7 +5612,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="87" spans="3:11">
+    <row r="87" spans="3:11" hidden="1">
       <c r="C87" t="s">
         <v>27</v>
       </c>
@@ -5717,7 +5647,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="88" spans="3:11">
+    <row r="88" spans="3:11" hidden="1">
       <c r="C88" t="s">
         <v>27</v>
       </c>
@@ -5892,7 +5822,7 @@
         <v>44マス</v>
       </c>
     </row>
-    <row r="93" spans="3:11">
+    <row r="93" spans="3:11" hidden="1">
       <c r="C93" t="s">
         <v>34</v>
       </c>
@@ -5927,7 +5857,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="94" spans="3:11">
+    <row r="94" spans="3:11" hidden="1">
       <c r="C94" t="s">
         <v>34</v>
       </c>
@@ -5962,7 +5892,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="95" spans="3:11">
+    <row r="95" spans="3:11" hidden="1">
       <c r="C95" t="s">
         <v>34</v>
       </c>
@@ -5997,7 +5927,7 @@
         <v>13マス</v>
       </c>
     </row>
-    <row r="96" spans="3:11">
+    <row r="96" spans="3:11" hidden="1">
       <c r="C96" t="s">
         <v>34</v>
       </c>
@@ -6032,7 +5962,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="97" spans="3:11">
+    <row r="97" spans="3:11" hidden="1">
       <c r="C97" t="s">
         <v>57</v>
       </c>
@@ -6067,7 +5997,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="98" spans="3:11">
+    <row r="98" spans="3:11" hidden="1">
       <c r="C98" t="s">
         <v>265</v>
       </c>
@@ -6102,7 +6032,7 @@
         <v>48マス</v>
       </c>
     </row>
-    <row r="99" spans="3:11">
+    <row r="99" spans="3:11" hidden="1">
       <c r="C99" t="s">
         <v>265</v>
       </c>
@@ -6137,7 +6067,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="100" spans="3:11">
+    <row r="100" spans="3:11" hidden="1">
       <c r="C100" t="s">
         <v>264</v>
       </c>
@@ -6172,7 +6102,7 @@
         <v>48マス</v>
       </c>
     </row>
-    <row r="101" spans="3:11">
+    <row r="101" spans="3:11" hidden="1">
       <c r="C101" t="s">
         <v>264</v>
       </c>
@@ -6207,7 +6137,7 @@
         <v>13マス</v>
       </c>
     </row>
-    <row r="102" spans="3:11">
+    <row r="102" spans="3:11" hidden="1">
       <c r="C102" t="s">
         <v>30</v>
       </c>
@@ -6242,7 +6172,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="103" spans="3:11">
+    <row r="103" spans="3:11" hidden="1">
       <c r="C103" t="s">
         <v>30</v>
       </c>
@@ -6277,7 +6207,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="104" spans="3:11">
+    <row r="104" spans="3:11" hidden="1">
       <c r="C104" t="s">
         <v>30</v>
       </c>
@@ -6312,7 +6242,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="105" spans="3:11">
+    <row r="105" spans="3:11" hidden="1">
       <c r="C105" t="s">
         <v>30</v>
       </c>
@@ -6347,7 +6277,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="106" spans="3:11">
+    <row r="106" spans="3:11" hidden="1">
       <c r="C106" t="s">
         <v>30</v>
       </c>
@@ -6382,7 +6312,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="107" spans="3:11">
+    <row r="107" spans="3:11" hidden="1">
       <c r="C107" t="s">
         <v>30</v>
       </c>
@@ -6417,7 +6347,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="108" spans="3:11">
+    <row r="108" spans="3:11" hidden="1">
       <c r="C108" t="s">
         <v>363</v>
       </c>
@@ -6452,7 +6382,7 @@
         <v>16マス</v>
       </c>
     </row>
-    <row r="109" spans="3:11">
+    <row r="109" spans="3:11" hidden="1">
       <c r="C109" t="s">
         <v>268</v>
       </c>
@@ -6487,7 +6417,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="110" spans="3:11">
+    <row r="110" spans="3:11" hidden="1">
       <c r="C110" t="s">
         <v>268</v>
       </c>
@@ -6522,7 +6452,7 @@
         <v>108マス</v>
       </c>
     </row>
-    <row r="111" spans="3:11">
+    <row r="111" spans="3:11" hidden="1">
       <c r="C111" t="s">
         <v>205</v>
       </c>
@@ -6557,7 +6487,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="112" spans="3:11">
+    <row r="112" spans="3:11" hidden="1">
       <c r="C112" t="s">
         <v>281</v>
       </c>
@@ -6592,7 +6522,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="113" spans="3:11">
+    <row r="113" spans="3:11" hidden="1">
       <c r="C113" t="s">
         <v>281</v>
       </c>
@@ -6627,7 +6557,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="114" spans="3:11">
+    <row r="114" spans="3:11" hidden="1">
       <c r="C114" t="s">
         <v>16</v>
       </c>
@@ -6662,7 +6592,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="115" spans="3:11">
+    <row r="115" spans="3:11" hidden="1">
       <c r="C115" t="s">
         <v>16</v>
       </c>
@@ -6697,7 +6627,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="116" spans="3:11">
+    <row r="116" spans="3:11" hidden="1">
       <c r="C116" t="s">
         <v>16</v>
       </c>
@@ -6732,7 +6662,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="117" spans="3:11">
+    <row r="117" spans="3:11" hidden="1">
       <c r="C117" t="s">
         <v>16</v>
       </c>
@@ -6767,7 +6697,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="118" spans="3:11">
+    <row r="118" spans="3:11" hidden="1">
       <c r="C118" t="s">
         <v>16</v>
       </c>
@@ -6802,7 +6732,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="119" spans="3:11">
+    <row r="119" spans="3:11" hidden="1">
       <c r="C119" t="s">
         <v>75</v>
       </c>
@@ -6837,7 +6767,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="120" spans="3:11">
+    <row r="120" spans="3:11" hidden="1">
       <c r="C120" t="s">
         <v>75</v>
       </c>
@@ -6872,7 +6802,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="121" spans="3:11">
+    <row r="121" spans="3:11" hidden="1">
       <c r="C121" t="s">
         <v>75</v>
       </c>
@@ -6907,7 +6837,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="122" spans="3:11">
+    <row r="122" spans="3:11" hidden="1">
       <c r="C122" t="s">
         <v>75</v>
       </c>
@@ -6942,7 +6872,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="123" spans="3:11">
+    <row r="123" spans="3:11" hidden="1">
       <c r="C123" t="s">
         <v>75</v>
       </c>
@@ -6977,7 +6907,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="124" spans="3:11">
+    <row r="124" spans="3:11" hidden="1">
       <c r="C124" t="s">
         <v>75</v>
       </c>
@@ -7012,7 +6942,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="125" spans="3:11">
+    <row r="125" spans="3:11" hidden="1">
       <c r="C125" t="s">
         <v>115</v>
       </c>
@@ -7047,7 +6977,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="126" spans="3:11">
+    <row r="126" spans="3:11" hidden="1">
       <c r="C126" t="s">
         <v>115</v>
       </c>
@@ -7082,7 +7012,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="127" spans="3:11">
+    <row r="127" spans="3:11" hidden="1">
       <c r="C127" t="s">
         <v>115</v>
       </c>
@@ -7117,7 +7047,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="128" spans="3:11">
+    <row r="128" spans="3:11" hidden="1">
       <c r="C128" t="s">
         <v>115</v>
       </c>
@@ -7152,7 +7082,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="129" spans="3:11">
+    <row r="129" spans="3:11" hidden="1">
       <c r="C129" t="s">
         <v>115</v>
       </c>
@@ -7187,7 +7117,7 @@
         <v>88マス</v>
       </c>
     </row>
-    <row r="130" spans="3:11">
+    <row r="130" spans="3:11" hidden="1">
       <c r="C130" t="s">
         <v>115</v>
       </c>
@@ -7222,7 +7152,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="131" spans="3:11">
+    <row r="131" spans="3:11" hidden="1">
       <c r="C131" t="s">
         <v>115</v>
       </c>
@@ -7257,7 +7187,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="132" spans="3:11">
+    <row r="132" spans="3:11" hidden="1">
       <c r="C132" t="s">
         <v>115</v>
       </c>
@@ -7292,7 +7222,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="133" spans="3:11">
+    <row r="133" spans="3:11" hidden="1">
       <c r="C133" t="s">
         <v>157</v>
       </c>
@@ -7327,7 +7257,7 @@
         <v>44マス</v>
       </c>
     </row>
-    <row r="134" spans="3:11">
+    <row r="134" spans="3:11" hidden="1">
       <c r="C134" t="s">
         <v>157</v>
       </c>
@@ -7362,7 +7292,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="135" spans="3:11">
+    <row r="135" spans="3:11" hidden="1">
       <c r="C135" t="s">
         <v>157</v>
       </c>
@@ -7397,7 +7327,7 @@
         <v>48マス</v>
       </c>
     </row>
-    <row r="136" spans="3:11">
+    <row r="136" spans="3:11" hidden="1">
       <c r="C136" t="s">
         <v>298</v>
       </c>
@@ -7432,7 +7362,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="137" spans="3:11">
+    <row r="137" spans="3:11" hidden="1">
       <c r="C137" t="s">
         <v>300</v>
       </c>
@@ -7467,7 +7397,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="138" spans="3:11">
+    <row r="138" spans="3:11" hidden="1">
       <c r="C138" t="s">
         <v>54</v>
       </c>
@@ -7502,7 +7432,7 @@
         <v>48マス</v>
       </c>
     </row>
-    <row r="139" spans="3:11">
+    <row r="139" spans="3:11" hidden="1">
       <c r="C139" t="s">
         <v>54</v>
       </c>
@@ -7537,7 +7467,7 @@
         <v>13マス</v>
       </c>
     </row>
-    <row r="140" spans="3:11">
+    <row r="140" spans="3:11" hidden="1">
       <c r="C140" t="s">
         <v>54</v>
       </c>
@@ -7572,7 +7502,7 @@
         <v>48マス</v>
       </c>
     </row>
-    <row r="141" spans="3:11">
+    <row r="141" spans="3:11" hidden="1">
       <c r="C141" t="s">
         <v>54</v>
       </c>
@@ -7607,7 +7537,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="142" spans="3:11">
+    <row r="142" spans="3:11" hidden="1">
       <c r="C142" t="s">
         <v>54</v>
       </c>
@@ -7642,7 +7572,7 @@
         <v>10マス</v>
       </c>
     </row>
-    <row r="143" spans="3:11">
+    <row r="143" spans="3:11" hidden="1">
       <c r="C143" t="s">
         <v>54</v>
       </c>
@@ -7677,7 +7607,7 @@
         <v>60マス</v>
       </c>
     </row>
-    <row r="144" spans="3:11">
+    <row r="144" spans="3:11" hidden="1">
       <c r="C144" t="s">
         <v>228</v>
       </c>
@@ -7712,7 +7642,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="145" spans="3:11">
+    <row r="145" spans="3:11" hidden="1">
       <c r="C145" t="s">
         <v>228</v>
       </c>
@@ -7747,7 +7677,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="146" spans="3:11">
+    <row r="146" spans="3:11" hidden="1">
       <c r="C146" t="s">
         <v>228</v>
       </c>
@@ -7782,7 +7712,7 @@
         <v>16マス</v>
       </c>
     </row>
-    <row r="147" spans="3:11">
+    <row r="147" spans="3:11" hidden="1">
       <c r="C147" t="s">
         <v>228</v>
       </c>
@@ -7817,7 +7747,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="148" spans="3:11">
+    <row r="148" spans="3:11" hidden="1">
       <c r="C148" t="s">
         <v>228</v>
       </c>
@@ -7852,7 +7782,7 @@
         <v>25マス</v>
       </c>
     </row>
-    <row r="149" spans="3:11">
+    <row r="149" spans="3:11" hidden="1">
       <c r="C149" t="s">
         <v>228</v>
       </c>
@@ -7887,7 +7817,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="150" spans="3:11">
+    <row r="150" spans="3:11" hidden="1">
       <c r="C150" t="s">
         <v>228</v>
       </c>
@@ -7922,7 +7852,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="151" spans="3:11">
+    <row r="151" spans="3:11" hidden="1">
       <c r="C151" t="s">
         <v>228</v>
       </c>
@@ -7957,7 +7887,7 @@
         <v>16マス</v>
       </c>
     </row>
-    <row r="152" spans="3:11">
+    <row r="152" spans="3:11" hidden="1">
       <c r="C152" t="s">
         <v>228</v>
       </c>
@@ -7992,7 +7922,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="153" spans="3:11">
+    <row r="153" spans="3:11" hidden="1">
       <c r="C153" t="s">
         <v>228</v>
       </c>
@@ -8027,7 +7957,7 @@
         <v>25マス</v>
       </c>
     </row>
-    <row r="154" spans="3:11">
+    <row r="154" spans="3:11" hidden="1">
       <c r="C154" t="s">
         <v>272</v>
       </c>
@@ -8062,7 +7992,7 @@
         <v>44マス</v>
       </c>
     </row>
-    <row r="155" spans="3:11">
+    <row r="155" spans="3:11" hidden="1">
       <c r="C155" t="s">
         <v>272</v>
       </c>
@@ -8097,7 +8027,7 @@
         <v>132マス</v>
       </c>
     </row>
-    <row r="156" spans="3:11">
+    <row r="156" spans="3:11" hidden="1">
       <c r="C156" t="s">
         <v>272</v>
       </c>
@@ -8132,7 +8062,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="157" spans="3:11">
+    <row r="157" spans="3:11" hidden="1">
       <c r="C157" t="s">
         <v>7</v>
       </c>
@@ -8167,7 +8097,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="158" spans="3:11">
+    <row r="158" spans="3:11" hidden="1">
       <c r="C158" t="s">
         <v>7</v>
       </c>
@@ -8202,7 +8132,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="159" spans="3:11">
+    <row r="159" spans="3:11" hidden="1">
       <c r="C159" t="s">
         <v>7</v>
       </c>
@@ -8237,7 +8167,7 @@
         <v>44マス</v>
       </c>
     </row>
-    <row r="160" spans="3:11">
+    <row r="160" spans="3:11" hidden="1">
       <c r="C160" t="s">
         <v>7</v>
       </c>
@@ -8272,7 +8202,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="161" spans="3:11">
+    <row r="161" spans="3:11" hidden="1">
       <c r="C161" t="s">
         <v>7</v>
       </c>
@@ -8307,7 +8237,7 @@
         <v>13マス</v>
       </c>
     </row>
-    <row r="162" spans="3:11">
+    <row r="162" spans="3:11" hidden="1">
       <c r="C162" t="s">
         <v>83</v>
       </c>
@@ -8342,7 +8272,7 @@
         <v>16マス</v>
       </c>
     </row>
-    <row r="163" spans="3:11">
+    <row r="163" spans="3:11" hidden="1">
       <c r="C163" t="s">
         <v>83</v>
       </c>
@@ -8377,7 +8307,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="164" spans="3:11">
+    <row r="164" spans="3:11" hidden="1">
       <c r="C164" t="s">
         <v>83</v>
       </c>
@@ -8412,7 +8342,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="165" spans="3:11">
+    <row r="165" spans="3:11" hidden="1">
       <c r="C165" t="s">
         <v>83</v>
       </c>
@@ -8447,7 +8377,7 @@
         <v>60マス</v>
       </c>
     </row>
-    <row r="166" spans="3:11">
+    <row r="166" spans="3:11" hidden="1">
       <c r="C166" t="s">
         <v>83</v>
       </c>
@@ -8482,7 +8412,7 @@
         <v>25マス</v>
       </c>
     </row>
-    <row r="167" spans="3:11">
+    <row r="167" spans="3:11" hidden="1">
       <c r="C167" t="s">
         <v>257</v>
       </c>
@@ -8517,7 +8447,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="168" spans="3:11">
+    <row r="168" spans="3:11" hidden="1">
       <c r="C168" t="s">
         <v>302</v>
       </c>
@@ -8552,7 +8482,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="169" spans="3:11">
+    <row r="169" spans="3:11" hidden="1">
       <c r="C169" t="s">
         <v>3</v>
       </c>
@@ -8587,7 +8517,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="170" spans="3:11">
+    <row r="170" spans="3:11" hidden="1">
       <c r="C170" t="s">
         <v>3</v>
       </c>
@@ -8622,7 +8552,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="171" spans="3:11">
+    <row r="171" spans="3:11" hidden="1">
       <c r="C171" t="s">
         <v>3</v>
       </c>
@@ -8657,7 +8587,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="172" spans="3:11">
+    <row r="172" spans="3:11" hidden="1">
       <c r="C172" t="s">
         <v>10</v>
       </c>
@@ -8692,7 +8622,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="173" spans="3:11">
+    <row r="173" spans="3:11" hidden="1">
       <c r="C173" t="s">
         <v>10</v>
       </c>
@@ -8727,7 +8657,7 @@
         <v>16マス</v>
       </c>
     </row>
-    <row r="174" spans="3:11">
+    <row r="174" spans="3:11" hidden="1">
       <c r="C174" t="s">
         <v>10</v>
       </c>
@@ -8762,7 +8692,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="175" spans="3:11">
+    <row r="175" spans="3:11" hidden="1">
       <c r="C175" t="s">
         <v>304</v>
       </c>
@@ -8797,7 +8727,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="176" spans="3:11">
+    <row r="176" spans="3:11" hidden="1">
       <c r="C176" t="s">
         <v>306</v>
       </c>
@@ -8832,7 +8762,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="177" spans="3:11">
+    <row r="177" spans="3:11" hidden="1">
       <c r="C177" t="s">
         <v>92</v>
       </c>
@@ -8867,7 +8797,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="178" spans="3:11">
+    <row r="178" spans="3:11" hidden="1">
       <c r="C178" t="s">
         <v>14</v>
       </c>
@@ -8902,7 +8832,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="179" spans="3:11">
+    <row r="179" spans="3:11" hidden="1">
       <c r="C179" t="s">
         <v>14</v>
       </c>
@@ -8937,7 +8867,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="180" spans="3:11">
+    <row r="180" spans="3:11" hidden="1">
       <c r="C180" t="s">
         <v>14</v>
       </c>
@@ -8972,7 +8902,7 @@
         <v>16マス</v>
       </c>
     </row>
-    <row r="181" spans="3:11">
+    <row r="181" spans="3:11" hidden="1">
       <c r="C181" t="s">
         <v>14</v>
       </c>
@@ -9007,7 +8937,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="182" spans="3:11">
+    <row r="182" spans="3:11" hidden="1">
       <c r="C182" t="s">
         <v>50</v>
       </c>
@@ -9042,7 +8972,7 @@
         <v>48マス</v>
       </c>
     </row>
-    <row r="183" spans="3:11">
+    <row r="183" spans="3:11" hidden="1">
       <c r="C183" t="s">
         <v>50</v>
       </c>
@@ -9077,7 +9007,7 @@
         <v>13マス</v>
       </c>
     </row>
-    <row r="184" spans="3:11">
+    <row r="184" spans="3:11" hidden="1">
       <c r="C184" t="s">
         <v>50</v>
       </c>
@@ -9112,7 +9042,7 @@
         <v>17マス</v>
       </c>
     </row>
-    <row r="185" spans="3:11">
+    <row r="185" spans="3:11" hidden="1">
       <c r="C185" t="s">
         <v>117</v>
       </c>
@@ -9147,7 +9077,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="186" spans="3:11">
+    <row r="186" spans="3:11" hidden="1">
       <c r="C186" t="s">
         <v>117</v>
       </c>
@@ -9182,7 +9112,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="187" spans="3:11">
+    <row r="187" spans="3:11" hidden="1">
       <c r="C187" t="s">
         <v>117</v>
       </c>
@@ -9217,7 +9147,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="188" spans="3:11">
+    <row r="188" spans="3:11" hidden="1">
       <c r="C188" t="s">
         <v>117</v>
       </c>
@@ -9252,7 +9182,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="189" spans="3:11">
+    <row r="189" spans="3:11" hidden="1">
       <c r="C189" t="s">
         <v>117</v>
       </c>
@@ -9287,7 +9217,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="190" spans="3:11">
+    <row r="190" spans="3:11" hidden="1">
       <c r="C190" t="s">
         <v>117</v>
       </c>
@@ -9322,7 +9252,7 @@
         <v>16マス</v>
       </c>
     </row>
-    <row r="191" spans="3:11">
+    <row r="191" spans="3:11" hidden="1">
       <c r="C191" t="s">
         <v>224</v>
       </c>
@@ -9357,7 +9287,7 @@
         <v>60マス</v>
       </c>
     </row>
-    <row r="192" spans="3:11">
+    <row r="192" spans="3:11" hidden="1">
       <c r="C192" t="s">
         <v>224</v>
       </c>
@@ -9392,7 +9322,7 @@
         <v>33マス</v>
       </c>
     </row>
-    <row r="193" spans="3:11">
+    <row r="193" spans="3:11" hidden="1">
       <c r="C193" t="s">
         <v>69</v>
       </c>
@@ -9427,7 +9357,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="194" spans="3:11">
+    <row r="194" spans="3:11" hidden="1">
       <c r="C194" t="s">
         <v>69</v>
       </c>
@@ -9462,7 +9392,7 @@
         <v>48マス</v>
       </c>
     </row>
-    <row r="195" spans="3:11">
+    <row r="195" spans="3:11" hidden="1">
       <c r="C195" t="s">
         <v>69</v>
       </c>
@@ -9497,7 +9427,7 @@
         <v>76マス</v>
       </c>
     </row>
-    <row r="196" spans="3:11">
+    <row r="196" spans="3:11" hidden="1">
       <c r="C196" t="s">
         <v>69</v>
       </c>
@@ -9532,7 +9462,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="197" spans="3:11">
+    <row r="197" spans="3:11" hidden="1">
       <c r="C197" t="s">
         <v>252</v>
       </c>
@@ -9567,7 +9497,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="198" spans="3:11">
+    <row r="198" spans="3:11" hidden="1">
       <c r="C198" t="s">
         <v>252</v>
       </c>
@@ -9602,7 +9532,7 @@
         <v>112マス</v>
       </c>
     </row>
-    <row r="199" spans="3:11">
+    <row r="199" spans="3:11" hidden="1">
       <c r="C199" t="s">
         <v>61</v>
       </c>
@@ -9637,7 +9567,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="200" spans="3:11">
+    <row r="200" spans="3:11" hidden="1">
       <c r="C200" t="s">
         <v>61</v>
       </c>
@@ -9672,7 +9602,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="201" spans="3:11">
+    <row r="201" spans="3:11" hidden="1">
       <c r="C201" t="s">
         <v>21</v>
       </c>
@@ -9707,7 +9637,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="202" spans="3:11">
+    <row r="202" spans="3:11" hidden="1">
       <c r="C202" t="s">
         <v>21</v>
       </c>
@@ -9742,7 +9672,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="203" spans="3:11">
+    <row r="203" spans="3:11" hidden="1">
       <c r="C203" t="s">
         <v>21</v>
       </c>
@@ -9777,7 +9707,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="204" spans="3:11">
+    <row r="204" spans="3:11" hidden="1">
       <c r="C204" t="s">
         <v>21</v>
       </c>
@@ -9812,7 +9742,7 @@
         <v>44マス</v>
       </c>
     </row>
-    <row r="205" spans="3:11">
+    <row r="205" spans="3:11" hidden="1">
       <c r="C205" t="s">
         <v>308</v>
       </c>
@@ -9847,7 +9777,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="206" spans="3:11">
+    <row r="206" spans="3:11" hidden="1">
       <c r="C206" t="s">
         <v>308</v>
       </c>
@@ -9882,7 +9812,7 @@
         <v>33マス</v>
       </c>
     </row>
-    <row r="207" spans="3:11">
+    <row r="207" spans="3:11" hidden="1">
       <c r="C207" t="s">
         <v>310</v>
       </c>
@@ -9917,7 +9847,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="208" spans="3:11">
+    <row r="208" spans="3:11" hidden="1">
       <c r="C208" t="s">
         <v>9</v>
       </c>
@@ -9952,7 +9882,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="209" spans="3:11">
+    <row r="209" spans="3:11" hidden="1">
       <c r="C209" t="s">
         <v>9</v>
       </c>
@@ -9987,7 +9917,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="210" spans="3:11">
+    <row r="210" spans="3:11" hidden="1">
       <c r="C210" t="s">
         <v>9</v>
       </c>
@@ -10022,7 +9952,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="211" spans="3:11">
+    <row r="211" spans="3:11" hidden="1">
       <c r="C211" t="s">
         <v>128</v>
       </c>
@@ -10057,7 +9987,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="212" spans="3:11">
+    <row r="212" spans="3:11" hidden="1">
       <c r="C212" t="s">
         <v>128</v>
       </c>
@@ -10092,7 +10022,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="213" spans="3:11">
+    <row r="213" spans="3:11" hidden="1">
       <c r="C213" t="s">
         <v>128</v>
       </c>
@@ -10127,7 +10057,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="214" spans="3:11">
+    <row r="214" spans="3:11" hidden="1">
       <c r="C214" t="s">
         <v>128</v>
       </c>
@@ -10162,7 +10092,7 @@
         <v>68マス</v>
       </c>
     </row>
-    <row r="215" spans="3:11">
+    <row r="215" spans="3:11" hidden="1">
       <c r="C215" t="s">
         <v>128</v>
       </c>
@@ -10197,7 +10127,7 @@
         <v>44マス</v>
       </c>
     </row>
-    <row r="216" spans="3:11">
+    <row r="216" spans="3:11" hidden="1">
       <c r="C216" t="s">
         <v>287</v>
       </c>
@@ -10232,7 +10162,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="217" spans="3:11">
+    <row r="217" spans="3:11" hidden="1">
       <c r="C217" t="s">
         <v>20</v>
       </c>
@@ -10267,7 +10197,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="218" spans="3:11">
+    <row r="218" spans="3:11" hidden="1">
       <c r="C218" t="s">
         <v>20</v>
       </c>
@@ -10302,7 +10232,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="219" spans="3:11">
+    <row r="219" spans="3:11" hidden="1">
       <c r="C219" t="s">
         <v>20</v>
       </c>
@@ -10337,7 +10267,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="220" spans="3:11">
+    <row r="220" spans="3:11" hidden="1">
       <c r="C220" t="s">
         <v>20</v>
       </c>
@@ -10372,7 +10302,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="221" spans="3:11">
+    <row r="221" spans="3:11" hidden="1">
       <c r="C221" t="s">
         <v>197</v>
       </c>
@@ -10407,7 +10337,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="222" spans="3:11">
+    <row r="222" spans="3:11" hidden="1">
       <c r="C222" t="s">
         <v>197</v>
       </c>
@@ -10442,7 +10372,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="223" spans="3:11">
+    <row r="223" spans="3:11" hidden="1">
       <c r="C223" t="s">
         <v>197</v>
       </c>
@@ -10477,7 +10407,7 @@
         <v>112マス</v>
       </c>
     </row>
-    <row r="224" spans="3:11">
+    <row r="224" spans="3:11" hidden="1">
       <c r="C224" t="s">
         <v>197</v>
       </c>
@@ -10512,7 +10442,7 @@
         <v>33マス</v>
       </c>
     </row>
-    <row r="225" spans="3:11">
+    <row r="225" spans="3:11" hidden="1">
       <c r="C225" t="s">
         <v>312</v>
       </c>
@@ -10547,7 +10477,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="226" spans="3:11">
+    <row r="226" spans="3:11" hidden="1">
       <c r="C226" t="s">
         <v>312</v>
       </c>
@@ -10582,7 +10512,7 @@
         <v>117マス</v>
       </c>
     </row>
-    <row r="227" spans="3:11">
+    <row r="227" spans="3:11" hidden="1">
       <c r="C227" t="s">
         <v>145</v>
       </c>
@@ -10617,7 +10547,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="228" spans="3:11">
+    <row r="228" spans="3:11" hidden="1">
       <c r="C228" t="s">
         <v>145</v>
       </c>
@@ -10652,7 +10582,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="229" spans="3:11">
+    <row r="229" spans="3:11" hidden="1">
       <c r="C229" t="s">
         <v>314</v>
       </c>
@@ -10687,7 +10617,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="230" spans="3:11">
+    <row r="230" spans="3:11" hidden="1">
       <c r="C230" t="s">
         <v>101</v>
       </c>
@@ -10722,7 +10652,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="231" spans="3:11">
+    <row r="231" spans="3:11" hidden="1">
       <c r="C231" t="s">
         <v>101</v>
       </c>
@@ -10757,7 +10687,7 @@
         <v>60マス</v>
       </c>
     </row>
-    <row r="232" spans="3:11">
+    <row r="232" spans="3:11" hidden="1">
       <c r="C232" t="s">
         <v>101</v>
       </c>
@@ -10792,7 +10722,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="233" spans="3:11">
+    <row r="233" spans="3:11" hidden="1">
       <c r="C233" t="s">
         <v>101</v>
       </c>
@@ -10827,7 +10757,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="234" spans="3:11">
+    <row r="234" spans="3:11" hidden="1">
       <c r="C234" t="s">
         <v>101</v>
       </c>
@@ -10862,7 +10792,7 @@
         <v>25マス</v>
       </c>
     </row>
-    <row r="235" spans="3:11">
+    <row r="235" spans="3:11" hidden="1">
       <c r="C235" t="s">
         <v>101</v>
       </c>
@@ -10897,7 +10827,7 @@
         <v>68マス</v>
       </c>
     </row>
-    <row r="236" spans="3:11">
+    <row r="236" spans="3:11" hidden="1">
       <c r="C236" t="s">
         <v>101</v>
       </c>
@@ -10932,7 +10862,7 @@
         <v>88マス</v>
       </c>
     </row>
-    <row r="237" spans="3:11">
+    <row r="237" spans="3:11" hidden="1">
       <c r="C237" t="s">
         <v>101</v>
       </c>
@@ -10967,7 +10897,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="238" spans="3:11">
+    <row r="238" spans="3:11" hidden="1">
       <c r="C238" t="s">
         <v>162</v>
       </c>
@@ -11002,7 +10932,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="239" spans="3:11">
+    <row r="239" spans="3:11" hidden="1">
       <c r="C239" t="s">
         <v>162</v>
       </c>
@@ -11037,7 +10967,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="240" spans="3:11">
+    <row r="240" spans="3:11" hidden="1">
       <c r="C240" t="s">
         <v>79</v>
       </c>
@@ -11072,7 +11002,7 @@
         <v>13マス</v>
       </c>
     </row>
-    <row r="241" spans="3:11">
+    <row r="241" spans="3:11" hidden="1">
       <c r="C241" t="s">
         <v>79</v>
       </c>
@@ -11107,7 +11037,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="242" spans="3:11">
+    <row r="242" spans="3:11" hidden="1">
       <c r="C242" t="s">
         <v>79</v>
       </c>
@@ -11142,7 +11072,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="243" spans="3:11">
+    <row r="243" spans="3:11" hidden="1">
       <c r="C243" t="s">
         <v>79</v>
       </c>
@@ -11177,7 +11107,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="244" spans="3:11">
+    <row r="244" spans="3:11" hidden="1">
       <c r="C244" t="s">
         <v>96</v>
       </c>
@@ -11212,7 +11142,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="245" spans="3:11">
+    <row r="245" spans="3:11" hidden="1">
       <c r="C245" t="s">
         <v>96</v>
       </c>
@@ -11247,7 +11177,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="246" spans="3:11">
+    <row r="246" spans="3:11" hidden="1">
       <c r="C246" t="s">
         <v>96</v>
       </c>
@@ -11282,7 +11212,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="247" spans="3:11">
+    <row r="247" spans="3:11" hidden="1">
       <c r="C247" t="s">
         <v>96</v>
       </c>
@@ -11317,7 +11247,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="248" spans="3:11">
+    <row r="248" spans="3:11" hidden="1">
       <c r="C248" t="s">
         <v>96</v>
       </c>
@@ -11352,7 +11282,7 @@
         <v>88マス</v>
       </c>
     </row>
-    <row r="249" spans="3:11">
+    <row r="249" spans="3:11" hidden="1">
       <c r="C249" t="s">
         <v>149</v>
       </c>
@@ -11387,7 +11317,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="250" spans="3:11">
+    <row r="250" spans="3:11" hidden="1">
       <c r="C250" t="s">
         <v>149</v>
       </c>
@@ -11422,7 +11352,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="251" spans="3:11">
+    <row r="251" spans="3:11" hidden="1">
       <c r="C251" t="s">
         <v>149</v>
       </c>
@@ -11457,7 +11387,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="252" spans="3:11">
+    <row r="252" spans="3:11" hidden="1">
       <c r="C252" t="s">
         <v>149</v>
       </c>
@@ -11737,7 +11667,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="260" spans="3:11">
+    <row r="260" spans="3:11" hidden="1">
       <c r="C260" t="s">
         <v>150</v>
       </c>
@@ -11772,7 +11702,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="261" spans="3:11">
+    <row r="261" spans="3:11" hidden="1">
       <c r="C261" t="s">
         <v>206</v>
       </c>
@@ -11807,7 +11737,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="262" spans="3:11">
+    <row r="262" spans="3:11" hidden="1">
       <c r="C262" t="s">
         <v>46</v>
       </c>
@@ -11842,7 +11772,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="263" spans="3:11">
+    <row r="263" spans="3:11" hidden="1">
       <c r="C263" t="s">
         <v>46</v>
       </c>
@@ -11877,7 +11807,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="264" spans="3:11">
+    <row r="264" spans="3:11" hidden="1">
       <c r="C264" t="s">
         <v>46</v>
       </c>
@@ -11912,7 +11842,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="265" spans="3:11">
+    <row r="265" spans="3:11" hidden="1">
       <c r="C265" t="s">
         <v>46</v>
       </c>
@@ -11947,7 +11877,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="266" spans="3:11">
+    <row r="266" spans="3:11" hidden="1">
       <c r="C266" t="s">
         <v>46</v>
       </c>
@@ -11982,7 +11912,7 @@
         <v>45マス</v>
       </c>
     </row>
-    <row r="267" spans="3:11">
+    <row r="267" spans="3:11" hidden="1">
       <c r="C267" t="s">
         <v>49</v>
       </c>
@@ -12017,7 +11947,7 @@
         <v>48マス</v>
       </c>
     </row>
-    <row r="268" spans="3:11">
+    <row r="268" spans="3:11" hidden="1">
       <c r="C268" t="s">
         <v>49</v>
       </c>
@@ -12052,7 +11982,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="269" spans="3:11">
+    <row r="269" spans="3:11" hidden="1">
       <c r="C269" t="s">
         <v>49</v>
       </c>
@@ -12087,7 +12017,7 @@
         <v>44マス</v>
       </c>
     </row>
-    <row r="270" spans="3:11">
+    <row r="270" spans="3:11" hidden="1">
       <c r="C270" t="s">
         <v>49</v>
       </c>
@@ -12122,7 +12052,7 @@
         <v>44マス</v>
       </c>
     </row>
-    <row r="271" spans="3:11">
+    <row r="271" spans="3:11" hidden="1">
       <c r="C271" t="s">
         <v>49</v>
       </c>
@@ -12157,7 +12087,7 @@
         <v>48マス</v>
       </c>
     </row>
-    <row r="272" spans="3:11">
+    <row r="272" spans="3:11" hidden="1">
       <c r="C272" t="s">
         <v>49</v>
       </c>
@@ -12192,7 +12122,7 @@
         <v>44マス</v>
       </c>
     </row>
-    <row r="273" spans="3:11">
+    <row r="273" spans="3:11" hidden="1">
       <c r="C273" t="s">
         <v>49</v>
       </c>
@@ -12227,7 +12157,7 @@
         <v>60マス</v>
       </c>
     </row>
-    <row r="274" spans="3:11">
+    <row r="274" spans="3:11" hidden="1">
       <c r="C274" t="s">
         <v>49</v>
       </c>
@@ -12262,7 +12192,7 @@
         <v>60マス</v>
       </c>
     </row>
-    <row r="275" spans="3:11">
+    <row r="275" spans="3:11" hidden="1">
       <c r="C275" t="s">
         <v>49</v>
       </c>
@@ -12297,7 +12227,7 @@
         <v>68マス</v>
       </c>
     </row>
-    <row r="276" spans="3:11">
+    <row r="276" spans="3:11" hidden="1">
       <c r="C276" t="s">
         <v>49</v>
       </c>
@@ -12332,7 +12262,7 @@
         <v>40マス</v>
       </c>
     </row>
-    <row r="277" spans="3:11">
+    <row r="277" spans="3:11" hidden="1">
       <c r="C277" t="s">
         <v>49</v>
       </c>
@@ -12367,7 +12297,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="278" spans="3:11">
+    <row r="278" spans="3:11" hidden="1">
       <c r="C278" t="s">
         <v>106</v>
       </c>
@@ -12402,7 +12332,7 @@
         <v>44マス</v>
       </c>
     </row>
-    <row r="279" spans="3:11">
+    <row r="279" spans="3:11" hidden="1">
       <c r="C279" t="s">
         <v>106</v>
       </c>
@@ -12437,7 +12367,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="280" spans="3:11">
+    <row r="280" spans="3:11" hidden="1">
       <c r="C280" t="s">
         <v>24</v>
       </c>
@@ -12472,7 +12402,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="281" spans="3:11">
+    <row r="281" spans="3:11" hidden="1">
       <c r="C281" t="s">
         <v>24</v>
       </c>
@@ -12507,7 +12437,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="282" spans="3:11">
+    <row r="282" spans="3:11" hidden="1">
       <c r="C282" t="s">
         <v>24</v>
       </c>
@@ -12542,7 +12472,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="283" spans="3:11">
+    <row r="283" spans="3:11" hidden="1">
       <c r="C283" t="s">
         <v>95</v>
       </c>
@@ -12577,7 +12507,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="284" spans="3:11">
+    <row r="284" spans="3:11" hidden="1">
       <c r="C284" t="s">
         <v>12</v>
       </c>
@@ -12612,7 +12542,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="285" spans="3:11">
+    <row r="285" spans="3:11" hidden="1">
       <c r="C285" t="s">
         <v>12</v>
       </c>
@@ -12647,7 +12577,7 @@
         <v>48マス</v>
       </c>
     </row>
-    <row r="286" spans="3:11">
+    <row r="286" spans="3:11" hidden="1">
       <c r="C286" t="s">
         <v>12</v>
       </c>
@@ -12682,7 +12612,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="287" spans="3:11">
+    <row r="287" spans="3:11" hidden="1">
       <c r="C287" t="s">
         <v>12</v>
       </c>
@@ -12717,7 +12647,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="288" spans="3:11">
+    <row r="288" spans="3:11" hidden="1">
       <c r="C288" t="s">
         <v>76</v>
       </c>
@@ -12752,7 +12682,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="289" spans="3:11">
+    <row r="289" spans="3:11" hidden="1">
       <c r="C289" t="s">
         <v>76</v>
       </c>
@@ -12787,7 +12717,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="290" spans="3:11">
+    <row r="290" spans="3:11" hidden="1">
       <c r="C290" t="s">
         <v>76</v>
       </c>
@@ -12822,7 +12752,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="291" spans="3:11">
+    <row r="291" spans="3:11" hidden="1">
       <c r="C291" t="s">
         <v>76</v>
       </c>
@@ -12857,7 +12787,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="292" spans="3:11">
+    <row r="292" spans="3:11" hidden="1">
       <c r="C292" t="s">
         <v>76</v>
       </c>
@@ -12892,7 +12822,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="293" spans="3:11">
+    <row r="293" spans="3:11" hidden="1">
       <c r="C293" t="s">
         <v>76</v>
       </c>
@@ -12927,7 +12857,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="294" spans="3:11">
+    <row r="294" spans="3:11" hidden="1">
       <c r="C294" t="s">
         <v>76</v>
       </c>
@@ -12962,7 +12892,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="295" spans="3:11">
+    <row r="295" spans="3:11" hidden="1">
       <c r="C295" t="s">
         <v>18</v>
       </c>
@@ -12997,7 +12927,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="296" spans="3:11">
+    <row r="296" spans="3:11" hidden="1">
       <c r="C296" t="s">
         <v>18</v>
       </c>
@@ -13032,7 +12962,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="297" spans="3:11">
+    <row r="297" spans="3:11" hidden="1">
       <c r="C297" t="s">
         <v>18</v>
       </c>
@@ -13067,7 +12997,7 @@
         <v>48マス</v>
       </c>
     </row>
-    <row r="298" spans="3:11">
+    <row r="298" spans="3:11" hidden="1">
       <c r="C298" t="s">
         <v>18</v>
       </c>
@@ -13102,7 +13032,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="299" spans="3:11">
+    <row r="299" spans="3:11" hidden="1">
       <c r="C299" t="s">
         <v>18</v>
       </c>
@@ -13137,7 +13067,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="300" spans="3:11">
+    <row r="300" spans="3:11" hidden="1">
       <c r="C300" t="s">
         <v>18</v>
       </c>
@@ -13172,7 +13102,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="301" spans="3:11">
+    <row r="301" spans="3:11" hidden="1">
       <c r="C301" t="s">
         <v>147</v>
       </c>
@@ -13207,7 +13137,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="302" spans="3:11">
+    <row r="302" spans="3:11" hidden="1">
       <c r="C302" t="s">
         <v>147</v>
       </c>
@@ -13242,7 +13172,7 @@
         <v>88マス</v>
       </c>
     </row>
-    <row r="303" spans="3:11">
+    <row r="303" spans="3:11" hidden="1">
       <c r="C303" t="s">
         <v>147</v>
       </c>
@@ -13277,7 +13207,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="304" spans="3:11">
+    <row r="304" spans="3:11" hidden="1">
       <c r="C304" t="s">
         <v>147</v>
       </c>
@@ -13312,7 +13242,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="305" spans="3:11">
+    <row r="305" spans="3:11" hidden="1">
       <c r="C305" t="s">
         <v>147</v>
       </c>
@@ -13347,7 +13277,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="306" spans="3:11">
+    <row r="306" spans="3:11" hidden="1">
       <c r="C306" t="s">
         <v>322</v>
       </c>
@@ -13382,7 +13312,7 @@
         <v>108マス</v>
       </c>
     </row>
-    <row r="307" spans="3:11">
+    <row r="307" spans="3:11" hidden="1">
       <c r="C307" t="s">
         <v>322</v>
       </c>
@@ -13417,7 +13347,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="308" spans="3:11">
+    <row r="308" spans="3:11" hidden="1">
       <c r="C308" t="s">
         <v>155</v>
       </c>
@@ -13452,7 +13382,7 @@
         <v>10マス</v>
       </c>
     </row>
-    <row r="309" spans="3:11">
+    <row r="309" spans="3:11" hidden="1">
       <c r="C309" t="s">
         <v>155</v>
       </c>
@@ -13487,7 +13417,7 @@
         <v>45マス</v>
       </c>
     </row>
-    <row r="310" spans="3:11">
+    <row r="310" spans="3:11" hidden="1">
       <c r="C310" t="s">
         <v>155</v>
       </c>
@@ -13522,7 +13452,7 @@
         <v>45マス</v>
       </c>
     </row>
-    <row r="311" spans="3:11">
+    <row r="311" spans="3:11" hidden="1">
       <c r="C311" t="s">
         <v>155</v>
       </c>
@@ -13557,7 +13487,7 @@
         <v>25マス</v>
       </c>
     </row>
-    <row r="312" spans="3:11">
+    <row r="312" spans="3:11" hidden="1">
       <c r="C312" t="s">
         <v>155</v>
       </c>
@@ -13592,7 +13522,7 @@
         <v>13マス</v>
       </c>
     </row>
-    <row r="313" spans="3:11">
+    <row r="313" spans="3:11" hidden="1">
       <c r="C313" t="s">
         <v>155</v>
       </c>
@@ -13627,7 +13557,7 @@
         <v>33マス</v>
       </c>
     </row>
-    <row r="314" spans="3:11">
+    <row r="314" spans="3:11" hidden="1">
       <c r="C314" t="s">
         <v>155</v>
       </c>
@@ -13662,7 +13592,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="315" spans="3:11">
+    <row r="315" spans="3:11" hidden="1">
       <c r="C315" t="s">
         <v>155</v>
       </c>
@@ -13697,7 +13627,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="316" spans="3:11">
+    <row r="316" spans="3:11" hidden="1">
       <c r="C316" t="s">
         <v>155</v>
       </c>
@@ -13732,7 +13662,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="317" spans="3:11">
+    <row r="317" spans="3:11" hidden="1">
       <c r="C317" t="s">
         <v>155</v>
       </c>
@@ -13767,7 +13697,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="318" spans="3:11">
+    <row r="318" spans="3:11" hidden="1">
       <c r="C318" t="s">
         <v>155</v>
       </c>
@@ -13802,7 +13732,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="319" spans="3:11">
+    <row r="319" spans="3:11" hidden="1">
       <c r="C319" t="s">
         <v>155</v>
       </c>
@@ -13837,7 +13767,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="320" spans="3:11">
+    <row r="320" spans="3:11" hidden="1">
       <c r="C320" t="s">
         <v>155</v>
       </c>
@@ -13872,7 +13802,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="321" spans="3:11">
+    <row r="321" spans="3:11" hidden="1">
       <c r="C321" t="s">
         <v>155</v>
       </c>
@@ -13907,7 +13837,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="322" spans="3:11">
+    <row r="322" spans="3:11" hidden="1">
       <c r="C322" t="s">
         <v>155</v>
       </c>
@@ -13942,7 +13872,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="323" spans="3:11">
+    <row r="323" spans="3:11" hidden="1">
       <c r="C323" t="s">
         <v>155</v>
       </c>
@@ -13977,7 +13907,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="324" spans="3:11">
+    <row r="324" spans="3:11" hidden="1">
       <c r="C324" t="s">
         <v>155</v>
       </c>
@@ -14012,7 +13942,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="325" spans="3:11">
+    <row r="325" spans="3:11" hidden="1">
       <c r="C325" t="s">
         <v>155</v>
       </c>
@@ -14047,7 +13977,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="326" spans="3:11">
+    <row r="326" spans="3:11" hidden="1">
       <c r="C326" t="s">
         <v>155</v>
       </c>
@@ -14082,7 +14012,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="327" spans="3:11">
+    <row r="327" spans="3:11" hidden="1">
       <c r="C327" t="s">
         <v>155</v>
       </c>
@@ -14117,7 +14047,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="328" spans="3:11">
+    <row r="328" spans="3:11" hidden="1">
       <c r="C328" t="s">
         <v>155</v>
       </c>
@@ -14152,7 +14082,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="329" spans="3:11">
+    <row r="329" spans="3:11" hidden="1">
       <c r="C329" t="s">
         <v>155</v>
       </c>
@@ -14187,7 +14117,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="330" spans="3:11">
+    <row r="330" spans="3:11" hidden="1">
       <c r="C330" t="s">
         <v>155</v>
       </c>
@@ -14222,7 +14152,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="331" spans="3:11">
+    <row r="331" spans="3:11" hidden="1">
       <c r="C331" t="s">
         <v>155</v>
       </c>
@@ -14257,7 +14187,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="332" spans="3:11">
+    <row r="332" spans="3:11" hidden="1">
       <c r="C332" t="s">
         <v>218</v>
       </c>
@@ -14292,7 +14222,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="333" spans="3:11">
+    <row r="333" spans="3:11" hidden="1">
       <c r="C333" t="s">
         <v>218</v>
       </c>
@@ -14327,7 +14257,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="334" spans="3:11">
+    <row r="334" spans="3:11" hidden="1">
       <c r="C334" t="s">
         <v>218</v>
       </c>
@@ -14362,7 +14292,7 @@
         <v>17マス</v>
       </c>
     </row>
-    <row r="335" spans="3:11">
+    <row r="335" spans="3:11" hidden="1">
       <c r="C335" t="s">
         <v>218</v>
       </c>
@@ -14397,7 +14327,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="336" spans="3:11">
+    <row r="336" spans="3:11" hidden="1">
       <c r="C336" t="s">
         <v>218</v>
       </c>
@@ -14432,7 +14362,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="337" spans="3:11">
+    <row r="337" spans="3:11" hidden="1">
       <c r="C337" t="s">
         <v>218</v>
       </c>
@@ -14467,7 +14397,7 @@
         <v>25マス</v>
       </c>
     </row>
-    <row r="338" spans="3:11">
+    <row r="338" spans="3:11" hidden="1">
       <c r="C338" t="s">
         <v>218</v>
       </c>
@@ -14502,7 +14432,7 @@
         <v>25マス</v>
       </c>
     </row>
-    <row r="339" spans="3:11">
+    <row r="339" spans="3:11" hidden="1">
       <c r="C339" t="s">
         <v>137</v>
       </c>
@@ -14537,7 +14467,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="340" spans="3:11">
+    <row r="340" spans="3:11" hidden="1">
       <c r="C340" t="s">
         <v>137</v>
       </c>
@@ -14572,7 +14502,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="341" spans="3:11">
+    <row r="341" spans="3:11" hidden="1">
       <c r="C341" t="s">
         <v>137</v>
       </c>
@@ -14607,7 +14537,7 @@
         <v>68マス</v>
       </c>
     </row>
-    <row r="342" spans="3:11">
+    <row r="342" spans="3:11" hidden="1">
       <c r="C342" t="s">
         <v>164</v>
       </c>
@@ -14642,7 +14572,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="343" spans="3:11">
+    <row r="343" spans="3:11" hidden="1">
       <c r="C343" t="s">
         <v>164</v>
       </c>
@@ -14677,7 +14607,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="344" spans="3:11">
+    <row r="344" spans="3:11" hidden="1">
       <c r="C344" t="s">
         <v>164</v>
       </c>
@@ -14887,7 +14817,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="350" spans="3:11">
+    <row r="350" spans="3:11" hidden="1">
       <c r="C350" t="s">
         <v>136</v>
       </c>
@@ -14922,7 +14852,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="351" spans="3:11">
+    <row r="351" spans="3:11" hidden="1">
       <c r="C351" t="s">
         <v>136</v>
       </c>
@@ -14957,7 +14887,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="352" spans="3:11">
+    <row r="352" spans="3:11" hidden="1">
       <c r="C352" t="s">
         <v>136</v>
       </c>
@@ -14992,7 +14922,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="353" spans="3:11">
+    <row r="353" spans="3:11" hidden="1">
       <c r="C353" t="s">
         <v>136</v>
       </c>
@@ -15027,7 +14957,7 @@
         <v>88マス</v>
       </c>
     </row>
-    <row r="354" spans="3:11">
+    <row r="354" spans="3:11" hidden="1">
       <c r="C354" t="s">
         <v>136</v>
       </c>
@@ -15062,7 +14992,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="355" spans="3:11">
+    <row r="355" spans="3:11" hidden="1">
       <c r="C355" t="s">
         <v>67</v>
       </c>
@@ -15097,7 +15027,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="356" spans="3:11">
+    <row r="356" spans="3:11" hidden="1">
       <c r="C356" t="s">
         <v>1</v>
       </c>
@@ -15132,7 +15062,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="357" spans="3:11">
+    <row r="357" spans="3:11" hidden="1">
       <c r="C357" t="s">
         <v>1</v>
       </c>
@@ -15167,7 +15097,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="358" spans="3:11">
+    <row r="358" spans="3:11" hidden="1">
       <c r="C358" t="s">
         <v>1</v>
       </c>
@@ -15202,7 +15132,7 @@
         <v>44マス</v>
       </c>
     </row>
-    <row r="359" spans="3:11">
+    <row r="359" spans="3:11" hidden="1">
       <c r="C359" t="s">
         <v>1</v>
       </c>
@@ -15237,7 +15167,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="360" spans="3:11">
+    <row r="360" spans="3:11" hidden="1">
       <c r="C360" t="s">
         <v>188</v>
       </c>
@@ -15272,7 +15202,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="361" spans="3:11">
+    <row r="361" spans="3:11" hidden="1">
       <c r="C361" t="s">
         <v>176</v>
       </c>
@@ -15307,7 +15237,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="362" spans="3:11">
+    <row r="362" spans="3:11" hidden="1">
       <c r="C362" t="s">
         <v>176</v>
       </c>
@@ -15342,7 +15272,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="363" spans="3:11">
+    <row r="363" spans="3:11" hidden="1">
       <c r="C363" t="s">
         <v>280</v>
       </c>
@@ -15377,7 +15307,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="364" spans="3:11">
+    <row r="364" spans="3:11" hidden="1">
       <c r="C364" t="s">
         <v>280</v>
       </c>
@@ -15412,7 +15342,7 @@
         <v>32マス</v>
       </c>
     </row>
-    <row r="365" spans="3:11">
+    <row r="365" spans="3:11" hidden="1">
       <c r="C365" t="s">
         <v>234</v>
       </c>
@@ -15447,7 +15377,7 @@
         <v>68マス</v>
       </c>
     </row>
-    <row r="366" spans="3:11">
+    <row r="366" spans="3:11" hidden="1">
       <c r="C366" t="s">
         <v>234</v>
       </c>
@@ -15482,7 +15412,7 @@
         <v>68マス</v>
       </c>
     </row>
-    <row r="367" spans="3:11">
+    <row r="367" spans="3:11" hidden="1">
       <c r="C367" t="s">
         <v>234</v>
       </c>
@@ -15517,7 +15447,7 @@
         <v>132マス</v>
       </c>
     </row>
-    <row r="368" spans="3:11">
+    <row r="368" spans="3:11" hidden="1">
       <c r="C368" t="s">
         <v>234</v>
       </c>
@@ -15552,7 +15482,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="369" spans="3:11">
+    <row r="369" spans="3:11" hidden="1">
       <c r="C369" t="s">
         <v>234</v>
       </c>
@@ -15587,7 +15517,7 @@
         <v>32マス</v>
       </c>
     </row>
-    <row r="370" spans="3:11">
+    <row r="370" spans="3:11" hidden="1">
       <c r="C370" t="s">
         <v>244</v>
       </c>
@@ -15622,7 +15552,7 @@
         <v>88マス</v>
       </c>
     </row>
-    <row r="371" spans="3:11">
+    <row r="371" spans="3:11" hidden="1">
       <c r="C371" t="s">
         <v>244</v>
       </c>
@@ -15657,7 +15587,7 @@
         <v>112マス</v>
       </c>
     </row>
-    <row r="372" spans="3:11">
+    <row r="372" spans="3:11" hidden="1">
       <c r="C372" t="s">
         <v>244</v>
       </c>
@@ -15692,7 +15622,7 @@
         <v>132マス</v>
       </c>
     </row>
-    <row r="373" spans="3:11">
+    <row r="373" spans="3:11" hidden="1">
       <c r="C373" t="s">
         <v>244</v>
       </c>
@@ -15727,7 +15657,7 @@
         <v>117マス</v>
       </c>
     </row>
-    <row r="374" spans="3:11">
+    <row r="374" spans="3:11" hidden="1">
       <c r="C374" t="s">
         <v>178</v>
       </c>
@@ -15762,7 +15692,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="375" spans="3:11">
+    <row r="375" spans="3:11" hidden="1">
       <c r="C375" t="s">
         <v>178</v>
       </c>
@@ -15797,7 +15727,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="376" spans="3:11">
+    <row r="376" spans="3:11" hidden="1">
       <c r="C376" t="s">
         <v>178</v>
       </c>
@@ -15832,7 +15762,7 @@
         <v>33マス</v>
       </c>
     </row>
-    <row r="377" spans="3:11">
+    <row r="377" spans="3:11" hidden="1">
       <c r="C377" t="s">
         <v>178</v>
       </c>
@@ -15867,7 +15797,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="378" spans="3:11">
+    <row r="378" spans="3:11" hidden="1">
       <c r="C378" t="s">
         <v>231</v>
       </c>
@@ -15902,7 +15832,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="379" spans="3:11">
+    <row r="379" spans="3:11" hidden="1">
       <c r="C379" t="s">
         <v>231</v>
       </c>
@@ -15937,7 +15867,7 @@
         <v>20マス</v>
       </c>
     </row>
-    <row r="380" spans="3:11">
+    <row r="380" spans="3:11" hidden="1">
       <c r="C380" t="s">
         <v>231</v>
       </c>
@@ -15972,7 +15902,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="381" spans="3:11">
+    <row r="381" spans="3:11" hidden="1">
       <c r="C381" t="s">
         <v>88</v>
       </c>
@@ -16007,7 +15937,7 @@
         <v>48マス</v>
       </c>
     </row>
-    <row r="382" spans="3:11">
+    <row r="382" spans="3:11" hidden="1">
       <c r="C382" t="s">
         <v>88</v>
       </c>
@@ -16042,7 +15972,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="383" spans="3:11">
+    <row r="383" spans="3:11" hidden="1">
       <c r="C383" t="s">
         <v>88</v>
       </c>
@@ -16077,7 +16007,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="384" spans="3:11">
+    <row r="384" spans="3:11" hidden="1">
       <c r="C384" t="s">
         <v>88</v>
       </c>
@@ -16112,7 +16042,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="385" spans="3:11">
+    <row r="385" spans="3:11" hidden="1">
       <c r="C385" t="s">
         <v>170</v>
       </c>
@@ -16147,7 +16077,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="386" spans="3:11">
+    <row r="386" spans="3:11" hidden="1">
       <c r="C386" t="s">
         <v>170</v>
       </c>
@@ -16182,7 +16112,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="387" spans="3:11">
+    <row r="387" spans="3:11" hidden="1">
       <c r="C387" t="s">
         <v>71</v>
       </c>
@@ -16217,7 +16147,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="388" spans="3:11">
+    <row r="388" spans="3:11" hidden="1">
       <c r="C388" t="s">
         <v>71</v>
       </c>
@@ -16252,7 +16182,7 @@
         <v>13マス</v>
       </c>
     </row>
-    <row r="389" spans="3:11">
+    <row r="389" spans="3:11" hidden="1">
       <c r="C389" t="s">
         <v>167</v>
       </c>
@@ -16287,7 +16217,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="390" spans="3:11">
+    <row r="390" spans="3:11" hidden="1">
       <c r="C390" t="s">
         <v>167</v>
       </c>
@@ -16322,7 +16252,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="391" spans="3:11">
+    <row r="391" spans="3:11" hidden="1">
       <c r="C391" t="s">
         <v>167</v>
       </c>
@@ -16357,7 +16287,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="392" spans="3:11">
+    <row r="392" spans="3:11" hidden="1">
       <c r="C392" t="s">
         <v>130</v>
       </c>
@@ -16392,7 +16322,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="393" spans="3:11">
+    <row r="393" spans="3:11" hidden="1">
       <c r="C393" t="s">
         <v>78</v>
       </c>
@@ -16427,7 +16357,7 @@
         <v>13マス</v>
       </c>
     </row>
-    <row r="394" spans="3:11">
+    <row r="394" spans="3:11" hidden="1">
       <c r="C394" t="s">
         <v>78</v>
       </c>
@@ -16462,7 +16392,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="395" spans="3:11">
+    <row r="395" spans="3:11" hidden="1">
       <c r="C395" t="s">
         <v>78</v>
       </c>
@@ -16497,7 +16427,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="396" spans="3:11">
+    <row r="396" spans="3:11" hidden="1">
       <c r="C396" t="s">
         <v>110</v>
       </c>
@@ -16532,7 +16462,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="397" spans="3:11">
+    <row r="397" spans="3:11" hidden="1">
       <c r="C397" t="s">
         <v>110</v>
       </c>
@@ -16567,7 +16497,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="398" spans="3:11">
+    <row r="398" spans="3:11" hidden="1">
       <c r="C398" t="s">
         <v>43</v>
       </c>
@@ -16602,7 +16532,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="399" spans="3:11">
+    <row r="399" spans="3:11" hidden="1">
       <c r="C399" t="s">
         <v>43</v>
       </c>
@@ -16637,7 +16567,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="400" spans="3:11">
+    <row r="400" spans="3:11" hidden="1">
       <c r="C400" t="s">
         <v>43</v>
       </c>
@@ -16672,7 +16602,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="401" spans="3:11">
+    <row r="401" spans="3:11" hidden="1">
       <c r="C401" t="s">
         <v>43</v>
       </c>
@@ -16707,7 +16637,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="402" spans="3:11">
+    <row r="402" spans="3:11" hidden="1">
       <c r="C402" t="s">
         <v>43</v>
       </c>
@@ -16742,7 +16672,7 @@
         <v>88マス</v>
       </c>
     </row>
-    <row r="403" spans="3:11">
+    <row r="403" spans="3:11" hidden="1">
       <c r="C403" t="s">
         <v>159</v>
       </c>
@@ -16777,7 +16707,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="404" spans="3:11">
+    <row r="404" spans="3:11" hidden="1">
       <c r="C404" t="s">
         <v>159</v>
       </c>
@@ -16812,7 +16742,7 @@
         <v>16マス</v>
       </c>
     </row>
-    <row r="405" spans="3:11">
+    <row r="405" spans="3:11" hidden="1">
       <c r="C405" t="s">
         <v>55</v>
       </c>
@@ -16847,7 +16777,7 @@
         <v>48マス</v>
       </c>
     </row>
-    <row r="406" spans="3:11">
+    <row r="406" spans="3:11" hidden="1">
       <c r="C406" t="s">
         <v>55</v>
       </c>
@@ -16882,7 +16812,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="407" spans="3:11">
+    <row r="407" spans="3:11" hidden="1">
       <c r="C407" t="s">
         <v>55</v>
       </c>
@@ -16917,7 +16847,7 @@
         <v>60マス</v>
       </c>
     </row>
-    <row r="408" spans="3:11">
+    <row r="408" spans="3:11" hidden="1">
       <c r="C408" t="s">
         <v>55</v>
       </c>
@@ -16952,7 +16882,7 @@
         <v>44マス</v>
       </c>
     </row>
-    <row r="409" spans="3:11">
+    <row r="409" spans="3:11" hidden="1">
       <c r="C409" t="s">
         <v>55</v>
       </c>
@@ -16987,7 +16917,7 @@
         <v>108マス</v>
       </c>
     </row>
-    <row r="410" spans="3:11">
+    <row r="410" spans="3:11" hidden="1">
       <c r="C410" t="s">
         <v>55</v>
       </c>
@@ -17022,7 +16952,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="411" spans="3:11">
+    <row r="411" spans="3:11" hidden="1">
       <c r="C411" t="s">
         <v>55</v>
       </c>
@@ -17057,7 +16987,7 @@
         <v>108マス</v>
       </c>
     </row>
-    <row r="412" spans="3:11">
+    <row r="412" spans="3:11" hidden="1">
       <c r="C412" t="s">
         <v>131</v>
       </c>
@@ -17092,7 +17022,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="413" spans="3:11">
+    <row r="413" spans="3:11" hidden="1">
       <c r="C413" t="s">
         <v>550</v>
       </c>
@@ -17127,7 +17057,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="414" spans="3:11">
+    <row r="414" spans="3:11" hidden="1">
       <c r="C414" t="s">
         <v>550</v>
       </c>
@@ -17162,7 +17092,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="415" spans="3:11">
+    <row r="415" spans="3:11" hidden="1">
       <c r="C415" t="s">
         <v>44</v>
       </c>
@@ -17197,7 +17127,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="416" spans="3:11">
+    <row r="416" spans="3:11" hidden="1">
       <c r="C416" t="s">
         <v>44</v>
       </c>
@@ -17232,7 +17162,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="417" spans="3:11">
+    <row r="417" spans="3:11" hidden="1">
       <c r="C417" t="s">
         <v>44</v>
       </c>
@@ -17267,7 +17197,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="418" spans="3:11">
+    <row r="418" spans="3:11" hidden="1">
       <c r="C418" t="s">
         <v>44</v>
       </c>
@@ -17302,7 +17232,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="419" spans="3:11">
+    <row r="419" spans="3:11" hidden="1">
       <c r="C419" t="s">
         <v>44</v>
       </c>
@@ -17337,7 +17267,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="420" spans="3:11">
+    <row r="420" spans="3:11" hidden="1">
       <c r="C420" t="s">
         <v>44</v>
       </c>
@@ -17372,7 +17302,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="421" spans="3:11">
+    <row r="421" spans="3:11" hidden="1">
       <c r="C421" t="s">
         <v>44</v>
       </c>
@@ -17407,7 +17337,7 @@
         <v>16マス</v>
       </c>
     </row>
-    <row r="422" spans="3:11">
+    <row r="422" spans="3:11" hidden="1">
       <c r="C422" t="s">
         <v>44</v>
       </c>
@@ -17442,7 +17372,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="423" spans="3:11">
+    <row r="423" spans="3:11" hidden="1">
       <c r="C423" t="s">
         <v>42</v>
       </c>
@@ -17477,7 +17407,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="424" spans="3:11">
+    <row r="424" spans="3:11" hidden="1">
       <c r="C424" t="s">
         <v>42</v>
       </c>
@@ -17512,7 +17442,7 @@
         <v>44マス</v>
       </c>
     </row>
-    <row r="425" spans="3:11">
+    <row r="425" spans="3:11" hidden="1">
       <c r="C425" t="s">
         <v>42</v>
       </c>
@@ -17547,7 +17477,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="426" spans="3:11">
+    <row r="426" spans="3:11" hidden="1">
       <c r="C426" t="s">
         <v>192</v>
       </c>
@@ -17582,7 +17512,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="427" spans="3:11">
+    <row r="427" spans="3:11" hidden="1">
       <c r="C427" t="s">
         <v>192</v>
       </c>
@@ -17617,7 +17547,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="428" spans="3:11">
+    <row r="428" spans="3:11" hidden="1">
       <c r="C428" t="s">
         <v>192</v>
       </c>
@@ -17652,7 +17582,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="429" spans="3:11">
+    <row r="429" spans="3:11" hidden="1">
       <c r="C429" t="s">
         <v>72</v>
       </c>
@@ -17687,7 +17617,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="430" spans="3:11">
+    <row r="430" spans="3:11" hidden="1">
       <c r="C430" t="s">
         <v>72</v>
       </c>
@@ -17722,7 +17652,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="431" spans="3:11">
+    <row r="431" spans="3:11" hidden="1">
       <c r="C431" t="s">
         <v>72</v>
       </c>
@@ -17757,7 +17687,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="432" spans="3:11">
+    <row r="432" spans="3:11" hidden="1">
       <c r="C432" t="s">
         <v>72</v>
       </c>
@@ -17792,7 +17722,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="433" spans="3:11">
+    <row r="433" spans="3:11" hidden="1">
       <c r="C433" t="s">
         <v>72</v>
       </c>
@@ -17827,7 +17757,7 @@
         <v>20マス</v>
       </c>
     </row>
-    <row r="434" spans="3:11">
+    <row r="434" spans="3:11" hidden="1">
       <c r="C434" t="s">
         <v>246</v>
       </c>
@@ -17862,7 +17792,7 @@
         <v>40マス</v>
       </c>
     </row>
-    <row r="435" spans="3:11">
+    <row r="435" spans="3:11" hidden="1">
       <c r="C435" t="s">
         <v>246</v>
       </c>
@@ -17897,7 +17827,7 @@
         <v>8マス</v>
       </c>
     </row>
-    <row r="436" spans="3:11">
+    <row r="436" spans="3:11" hidden="1">
       <c r="C436" t="s">
         <v>246</v>
       </c>
@@ -17932,7 +17862,7 @@
         <v>20マス</v>
       </c>
     </row>
-    <row r="437" spans="3:11">
+    <row r="437" spans="3:11" hidden="1">
       <c r="C437" t="s">
         <v>246</v>
       </c>
@@ -17967,7 +17897,7 @@
         <v>20マス</v>
       </c>
     </row>
-    <row r="438" spans="3:11">
+    <row r="438" spans="3:11" hidden="1">
       <c r="C438" t="s">
         <v>246</v>
       </c>
@@ -18002,7 +17932,7 @@
         <v>32マス</v>
       </c>
     </row>
-    <row r="439" spans="3:11">
+    <row r="439" spans="3:11" hidden="1">
       <c r="C439" t="s">
         <v>153</v>
       </c>
@@ -18037,7 +17967,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="440" spans="3:11">
+    <row r="440" spans="3:11" hidden="1">
       <c r="C440" t="s">
         <v>153</v>
       </c>
@@ -18072,7 +18002,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="441" spans="3:11">
+    <row r="441" spans="3:11" hidden="1">
       <c r="C441" t="s">
         <v>153</v>
       </c>
@@ -18107,7 +18037,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="442" spans="3:11">
+    <row r="442" spans="3:11" hidden="1">
       <c r="C442" t="s">
         <v>235</v>
       </c>
@@ -18142,7 +18072,7 @@
         <v>68マス</v>
       </c>
     </row>
-    <row r="443" spans="3:11">
+    <row r="443" spans="3:11" hidden="1">
       <c r="C443" t="s">
         <v>235</v>
       </c>
@@ -18177,7 +18107,7 @@
         <v>68マス</v>
       </c>
     </row>
-    <row r="444" spans="3:11">
+    <row r="444" spans="3:11" hidden="1">
       <c r="C444" t="s">
         <v>235</v>
       </c>
@@ -18212,7 +18142,7 @@
         <v>132マス</v>
       </c>
     </row>
-    <row r="445" spans="3:11">
+    <row r="445" spans="3:11" hidden="1">
       <c r="C445" t="s">
         <v>320</v>
       </c>
@@ -18247,7 +18177,7 @@
         <v>88マス</v>
       </c>
     </row>
-    <row r="446" spans="3:11">
+    <row r="446" spans="3:11" hidden="1">
       <c r="C446" t="s">
         <v>320</v>
       </c>
@@ -18282,7 +18212,7 @@
         <v>117マス</v>
       </c>
     </row>
-    <row r="447" spans="3:11">
+    <row r="447" spans="3:11" hidden="1">
       <c r="C447" t="s">
         <v>13</v>
       </c>
@@ -18317,7 +18247,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="448" spans="3:11">
+    <row r="448" spans="3:11" hidden="1">
       <c r="C448" t="s">
         <v>13</v>
       </c>
@@ -18352,7 +18282,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="449" spans="3:11">
+    <row r="449" spans="3:11" hidden="1">
       <c r="C449" t="s">
         <v>13</v>
       </c>
@@ -18387,7 +18317,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="450" spans="3:11">
+    <row r="450" spans="3:11" hidden="1">
       <c r="C450" t="s">
         <v>316</v>
       </c>
@@ -18422,7 +18352,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="451" spans="3:11">
+    <row r="451" spans="3:11" hidden="1">
       <c r="C451" t="s">
         <v>211</v>
       </c>
@@ -18457,7 +18387,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="452" spans="3:11">
+    <row r="452" spans="3:11" hidden="1">
       <c r="C452" t="s">
         <v>211</v>
       </c>
@@ -18492,7 +18422,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="453" spans="3:11">
+    <row r="453" spans="3:11" hidden="1">
       <c r="C453" t="s">
         <v>211</v>
       </c>
@@ -18527,7 +18457,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="454" spans="3:11">
+    <row r="454" spans="3:11" hidden="1">
       <c r="C454" t="s">
         <v>211</v>
       </c>
@@ -18562,7 +18492,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="455" spans="3:11">
+    <row r="455" spans="3:11" hidden="1">
       <c r="C455" t="s">
         <v>211</v>
       </c>
@@ -18597,7 +18527,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="456" spans="3:11">
+    <row r="456" spans="3:11" hidden="1">
       <c r="C456" t="s">
         <v>211</v>
       </c>
@@ -18632,7 +18562,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="457" spans="3:11">
+    <row r="457" spans="3:11" hidden="1">
       <c r="C457" t="s">
         <v>104</v>
       </c>
@@ -18667,7 +18597,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="458" spans="3:11">
+    <row r="458" spans="3:11" hidden="1">
       <c r="C458" t="s">
         <v>104</v>
       </c>
@@ -18702,7 +18632,7 @@
         <v>33マス</v>
       </c>
     </row>
-    <row r="459" spans="3:11">
+    <row r="459" spans="3:11" hidden="1">
       <c r="C459" t="s">
         <v>133</v>
       </c>
@@ -18737,7 +18667,7 @@
         <v>33マス</v>
       </c>
     </row>
-    <row r="460" spans="3:11">
+    <row r="460" spans="3:11" hidden="1">
       <c r="C460" t="s">
         <v>133</v>
       </c>
@@ -18772,7 +18702,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="461" spans="3:11">
+    <row r="461" spans="3:11" hidden="1">
       <c r="C461" t="s">
         <v>133</v>
       </c>
@@ -18807,7 +18737,7 @@
         <v>68マス</v>
       </c>
     </row>
-    <row r="462" spans="3:11">
+    <row r="462" spans="3:11" hidden="1">
       <c r="C462" t="s">
         <v>133</v>
       </c>
@@ -18842,7 +18772,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="463" spans="3:11">
+    <row r="463" spans="3:11" hidden="1">
       <c r="C463" t="s">
         <v>133</v>
       </c>
@@ -18877,7 +18807,7 @@
         <v>44マス</v>
       </c>
     </row>
-    <row r="464" spans="3:11">
+    <row r="464" spans="3:11" hidden="1">
       <c r="C464" t="s">
         <v>133</v>
       </c>
@@ -18912,7 +18842,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="465" spans="3:11">
+    <row r="465" spans="3:11" hidden="1">
       <c r="C465" t="s">
         <v>59</v>
       </c>
@@ -18947,7 +18877,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="466" spans="3:11">
+    <row r="466" spans="3:11" hidden="1">
       <c r="C466" t="s">
         <v>65</v>
       </c>
@@ -18982,7 +18912,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="467" spans="3:11">
+    <row r="467" spans="3:11" hidden="1">
       <c r="C467" t="s">
         <v>65</v>
       </c>
@@ -19017,7 +18947,7 @@
         <v>76マス</v>
       </c>
     </row>
-    <row r="468" spans="3:11">
+    <row r="468" spans="3:11" hidden="1">
       <c r="C468" t="s">
         <v>65</v>
       </c>
@@ -19052,7 +18982,7 @@
         <v>108マス</v>
       </c>
     </row>
-    <row r="469" spans="3:11">
+    <row r="469" spans="3:11" hidden="1">
       <c r="C469" t="s">
         <v>65</v>
       </c>
@@ -19087,7 +19017,7 @@
         <v>88マス</v>
       </c>
     </row>
-    <row r="470" spans="3:11">
+    <row r="470" spans="3:11" hidden="1">
       <c r="C470" t="s">
         <v>65</v>
       </c>
@@ -19122,7 +19052,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="471" spans="3:11">
+    <row r="471" spans="3:11" hidden="1">
       <c r="C471" t="s">
         <v>65</v>
       </c>
@@ -19157,7 +19087,7 @@
         <v>108マス</v>
       </c>
     </row>
-    <row r="472" spans="3:11">
+    <row r="472" spans="3:11" hidden="1">
       <c r="C472" t="s">
         <v>65</v>
       </c>
@@ -19192,7 +19122,7 @@
         <v>108マス</v>
       </c>
     </row>
-    <row r="473" spans="3:11">
+    <row r="473" spans="3:11" hidden="1">
       <c r="C473" t="s">
         <v>212</v>
       </c>
@@ -19227,7 +19157,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="474" spans="3:11">
+    <row r="474" spans="3:11" hidden="1">
       <c r="C474" t="s">
         <v>212</v>
       </c>
@@ -19262,7 +19192,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="475" spans="3:11">
+    <row r="475" spans="3:11" hidden="1">
       <c r="C475" t="s">
         <v>212</v>
       </c>
@@ -19297,7 +19227,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="476" spans="3:11">
+    <row r="476" spans="3:11" hidden="1">
       <c r="C476" t="s">
         <v>212</v>
       </c>
@@ -19332,7 +19262,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="477" spans="3:11">
+    <row r="477" spans="3:11" hidden="1">
       <c r="C477" t="s">
         <v>212</v>
       </c>
@@ -19367,7 +19297,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="478" spans="3:11">
+    <row r="478" spans="3:11" hidden="1">
       <c r="C478" t="s">
         <v>212</v>
       </c>
@@ -19402,7 +19332,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="479" spans="3:11">
+    <row r="479" spans="3:11" hidden="1">
       <c r="C479" t="s">
         <v>212</v>
       </c>
@@ -19437,7 +19367,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="480" spans="3:11">
+    <row r="480" spans="3:11" hidden="1">
       <c r="C480" t="s">
         <v>112</v>
       </c>
@@ -19472,7 +19402,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="481" spans="3:11">
+    <row r="481" spans="3:11" hidden="1">
       <c r="C481" t="s">
         <v>112</v>
       </c>
@@ -19507,7 +19437,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="482" spans="3:11">
+    <row r="482" spans="3:11" hidden="1">
       <c r="C482" t="s">
         <v>112</v>
       </c>
@@ -19542,7 +19472,7 @@
         <v>16マス</v>
       </c>
     </row>
-    <row r="483" spans="3:11">
+    <row r="483" spans="3:11" hidden="1">
       <c r="C483" t="s">
         <v>112</v>
       </c>
@@ -19577,7 +19507,7 @@
         <v>45マス</v>
       </c>
     </row>
-    <row r="484" spans="3:11">
+    <row r="484" spans="3:11" hidden="1">
       <c r="C484" t="s">
         <v>86</v>
       </c>
@@ -19612,7 +19542,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="485" spans="3:11">
+    <row r="485" spans="3:11" hidden="1">
       <c r="C485" t="s">
         <v>86</v>
       </c>
@@ -19647,7 +19577,7 @@
         <v>21マス</v>
       </c>
     </row>
-    <row r="486" spans="3:11">
+    <row r="486" spans="3:11" hidden="1">
       <c r="C486" t="s">
         <v>86</v>
       </c>
@@ -19682,7 +19612,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="487" spans="3:11">
+    <row r="487" spans="3:11" hidden="1">
       <c r="C487" t="s">
         <v>86</v>
       </c>
@@ -19717,7 +19647,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="488" spans="3:11">
+    <row r="488" spans="3:11" hidden="1">
       <c r="C488" t="s">
         <v>86</v>
       </c>
@@ -19752,7 +19682,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="489" spans="3:11">
+    <row r="489" spans="3:11" hidden="1">
       <c r="C489" t="s">
         <v>86</v>
       </c>
@@ -19787,7 +19717,7 @@
         <v>60マス</v>
       </c>
     </row>
-    <row r="490" spans="3:11">
+    <row r="490" spans="3:11" hidden="1">
       <c r="C490" t="s">
         <v>86</v>
       </c>
@@ -19822,7 +19752,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="491" spans="3:11">
+    <row r="491" spans="3:11" hidden="1">
       <c r="C491" t="s">
         <v>86</v>
       </c>
@@ -19857,7 +19787,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="492" spans="3:11">
+    <row r="492" spans="3:11" hidden="1">
       <c r="C492" t="s">
         <v>122</v>
       </c>
@@ -19892,7 +19822,7 @@
         <v>48マス</v>
       </c>
     </row>
-    <row r="493" spans="3:11">
+    <row r="493" spans="3:11" hidden="1">
       <c r="C493" t="s">
         <v>122</v>
       </c>
@@ -19927,7 +19857,7 @@
         <v>60マス</v>
       </c>
     </row>
-    <row r="494" spans="3:11">
+    <row r="494" spans="3:11" hidden="1">
       <c r="C494" t="s">
         <v>122</v>
       </c>
@@ -19962,7 +19892,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="495" spans="3:11">
+    <row r="495" spans="3:11" hidden="1">
       <c r="C495" t="s">
         <v>122</v>
       </c>
@@ -19997,7 +19927,7 @@
         <v>17マス</v>
       </c>
     </row>
-    <row r="496" spans="3:11">
+    <row r="496" spans="3:11" hidden="1">
       <c r="C496" t="s">
         <v>122</v>
       </c>
@@ -20032,7 +19962,7 @@
         <v>60マス</v>
       </c>
     </row>
-    <row r="497" spans="3:11">
+    <row r="497" spans="3:11" hidden="1">
       <c r="C497" t="s">
         <v>122</v>
       </c>
@@ -20067,7 +19997,7 @@
         <v>25マス</v>
       </c>
     </row>
-    <row r="498" spans="3:11">
+    <row r="498" spans="3:11" hidden="1">
       <c r="C498" t="s">
         <v>17</v>
       </c>
@@ -20102,7 +20032,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="499" spans="3:11">
+    <row r="499" spans="3:11" hidden="1">
       <c r="C499" t="s">
         <v>17</v>
       </c>
@@ -20137,7 +20067,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="500" spans="3:11">
+    <row r="500" spans="3:11" hidden="1">
       <c r="C500" t="s">
         <v>17</v>
       </c>
@@ -20172,7 +20102,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="501" spans="3:11">
+    <row r="501" spans="3:11" hidden="1">
       <c r="C501" t="s">
         <v>17</v>
       </c>
@@ -20207,7 +20137,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="502" spans="3:11">
+    <row r="502" spans="3:11" hidden="1">
       <c r="C502" t="s">
         <v>68</v>
       </c>
@@ -20242,7 +20172,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="503" spans="3:11">
+    <row r="503" spans="3:11" hidden="1">
       <c r="C503" t="s">
         <v>68</v>
       </c>
@@ -20277,7 +20207,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="504" spans="3:11">
+    <row r="504" spans="3:11" hidden="1">
       <c r="C504" t="s">
         <v>68</v>
       </c>
@@ -20312,7 +20242,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="505" spans="3:11">
+    <row r="505" spans="3:11" hidden="1">
       <c r="C505" t="s">
         <v>68</v>
       </c>
@@ -20347,7 +20277,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="506" spans="3:11">
+    <row r="506" spans="3:11" hidden="1">
       <c r="C506" t="s">
         <v>114</v>
       </c>
@@ -20382,7 +20312,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="507" spans="3:11">
+    <row r="507" spans="3:11" hidden="1">
       <c r="C507" t="s">
         <v>114</v>
       </c>
@@ -20417,7 +20347,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="508" spans="3:11">
+    <row r="508" spans="3:11" hidden="1">
       <c r="C508" t="s">
         <v>114</v>
       </c>
@@ -20452,7 +20382,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="509" spans="3:11">
+    <row r="509" spans="3:11" hidden="1">
       <c r="C509" t="s">
         <v>114</v>
       </c>
@@ -20487,7 +20417,7 @@
         <v>68マス</v>
       </c>
     </row>
-    <row r="510" spans="3:11">
+    <row r="510" spans="3:11" hidden="1">
       <c r="C510" t="s">
         <v>114</v>
       </c>
@@ -20522,7 +20452,7 @@
         <v>20マス</v>
       </c>
     </row>
-    <row r="511" spans="3:11">
+    <row r="511" spans="3:11" hidden="1">
       <c r="C511" t="s">
         <v>114</v>
       </c>
@@ -20557,7 +20487,7 @@
         <v>18マス</v>
       </c>
     </row>
-    <row r="512" spans="3:11">
+    <row r="512" spans="3:11" hidden="1">
       <c r="C512" t="s">
         <v>144</v>
       </c>
@@ -20592,7 +20522,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="513" spans="3:11">
+    <row r="513" spans="3:11" hidden="1">
       <c r="C513" t="s">
         <v>144</v>
       </c>
@@ -20627,7 +20557,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="514" spans="3:11">
+    <row r="514" spans="3:11" hidden="1">
       <c r="C514" t="s">
         <v>64</v>
       </c>
@@ -20662,7 +20592,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="515" spans="3:11">
+    <row r="515" spans="3:11" hidden="1">
       <c r="C515" t="s">
         <v>64</v>
       </c>
@@ -20697,7 +20627,7 @@
         <v>10マス</v>
       </c>
     </row>
-    <row r="516" spans="3:11">
+    <row r="516" spans="3:11" hidden="1">
       <c r="C516" t="s">
         <v>74</v>
       </c>
@@ -20732,7 +20662,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="517" spans="3:11">
+    <row r="517" spans="3:11" hidden="1">
       <c r="C517" t="s">
         <v>118</v>
       </c>
@@ -20767,7 +20697,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="518" spans="3:11">
+    <row r="518" spans="3:11" hidden="1">
       <c r="C518" t="s">
         <v>118</v>
       </c>
@@ -20802,7 +20732,7 @@
         <v>36マス</v>
       </c>
     </row>
-    <row r="519" spans="3:11">
+    <row r="519" spans="3:11" hidden="1">
       <c r="C519" t="s">
         <v>118</v>
       </c>
@@ -20837,7 +20767,7 @@
         <v>28マス</v>
       </c>
     </row>
-    <row r="520" spans="3:11">
+    <row r="520" spans="3:11" hidden="1">
       <c r="C520" t="s">
         <v>118</v>
       </c>
@@ -20872,7 +20802,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="521" spans="3:11">
+    <row r="521" spans="3:11" hidden="1">
       <c r="C521" t="s">
         <v>118</v>
       </c>
@@ -20907,7 +20837,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="522" spans="3:11">
+    <row r="522" spans="3:11" hidden="1">
       <c r="C522" t="s">
         <v>93</v>
       </c>
@@ -20942,7 +20872,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="523" spans="3:11">
+    <row r="523" spans="3:11" hidden="1">
       <c r="C523" t="s">
         <v>93</v>
       </c>
@@ -20977,7 +20907,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="524" spans="3:11">
+    <row r="524" spans="3:11" hidden="1">
       <c r="C524" t="s">
         <v>93</v>
       </c>
@@ -21012,7 +20942,7 @@
         <v>44マス</v>
       </c>
     </row>
-    <row r="525" spans="3:11">
+    <row r="525" spans="3:11" hidden="1">
       <c r="C525" t="s">
         <v>93</v>
       </c>
@@ -21047,7 +20977,7 @@
         <v>60マス</v>
       </c>
     </row>
-    <row r="526" spans="3:11">
+    <row r="526" spans="3:11" hidden="1">
       <c r="C526" t="s">
         <v>93</v>
       </c>
@@ -21082,7 +21012,7 @@
         <v>76マス</v>
       </c>
     </row>
-    <row r="527" spans="3:11">
+    <row r="527" spans="3:11" hidden="1">
       <c r="C527" t="s">
         <v>93</v>
       </c>
@@ -21117,7 +21047,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="528" spans="3:11">
+    <row r="528" spans="3:11" hidden="1">
       <c r="C528" t="s">
         <v>93</v>
       </c>
@@ -21152,7 +21082,7 @@
         <v>45マス</v>
       </c>
     </row>
-    <row r="529" spans="3:11">
+    <row r="529" spans="3:11" hidden="1">
       <c r="C529" t="s">
         <v>93</v>
       </c>
@@ -21187,7 +21117,7 @@
         <v>108マス</v>
       </c>
     </row>
-    <row r="530" spans="3:11">
+    <row r="530" spans="3:11" hidden="1">
       <c r="C530" t="s">
         <v>93</v>
       </c>
@@ -21222,7 +21152,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="531" spans="3:11">
+    <row r="531" spans="3:11" hidden="1">
       <c r="C531" t="s">
         <v>93</v>
       </c>
@@ -21257,7 +21187,7 @@
         <v>88マス</v>
       </c>
     </row>
-    <row r="532" spans="3:11">
+    <row r="532" spans="3:11" hidden="1">
       <c r="C532" t="s">
         <v>93</v>
       </c>
@@ -21292,7 +21222,7 @@
         <v>108マス</v>
       </c>
     </row>
-    <row r="533" spans="3:11">
+    <row r="533" spans="3:11" hidden="1">
       <c r="C533" t="s">
         <v>33</v>
       </c>
@@ -21327,7 +21257,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="534" spans="3:11">
+    <row r="534" spans="3:11" hidden="1">
       <c r="C534" t="s">
         <v>33</v>
       </c>
@@ -21362,7 +21292,7 @@
         <v>9マス</v>
       </c>
     </row>
-    <row r="535" spans="3:11">
+    <row r="535" spans="3:11" hidden="1">
       <c r="C535" t="s">
         <v>33</v>
       </c>
@@ -21397,7 +21327,7 @@
         <v>44マス</v>
       </c>
     </row>
-    <row r="536" spans="3:11">
+    <row r="536" spans="3:11" hidden="1">
       <c r="C536" t="s">
         <v>33</v>
       </c>
@@ -21432,7 +21362,7 @@
         <v>48マス</v>
       </c>
     </row>
-    <row r="537" spans="3:11">
+    <row r="537" spans="3:11" hidden="1">
       <c r="C537" t="s">
         <v>33</v>
       </c>
@@ -21467,7 +21397,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="538" spans="3:11">
+    <row r="538" spans="3:11" hidden="1">
       <c r="C538" t="s">
         <v>226</v>
       </c>
@@ -21502,7 +21432,7 @@
         <v>88マス</v>
       </c>
     </row>
-    <row r="539" spans="3:11">
+    <row r="539" spans="3:11" hidden="1">
       <c r="C539" t="s">
         <v>226</v>
       </c>
@@ -21537,7 +21467,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="540" spans="3:11">
+    <row r="540" spans="3:11" hidden="1">
       <c r="C540" t="s">
         <v>226</v>
       </c>
@@ -21572,7 +21502,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="541" spans="3:11">
+    <row r="541" spans="3:11" hidden="1">
       <c r="C541" t="s">
         <v>31</v>
       </c>
@@ -21607,7 +21537,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="542" spans="3:11">
+    <row r="542" spans="3:11" hidden="1">
       <c r="C542" t="s">
         <v>31</v>
       </c>
@@ -21642,7 +21572,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="543" spans="3:11">
+    <row r="543" spans="3:11" hidden="1">
       <c r="C543" t="s">
         <v>31</v>
       </c>
@@ -21677,7 +21607,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="544" spans="3:11">
+    <row r="544" spans="3:11" hidden="1">
       <c r="C544" t="s">
         <v>31</v>
       </c>
@@ -21712,7 +21642,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="545" spans="3:11">
+    <row r="545" spans="3:11" hidden="1">
       <c r="C545" t="s">
         <v>31</v>
       </c>
@@ -21747,7 +21677,7 @@
         <v>24マス</v>
       </c>
     </row>
-    <row r="546" spans="3:11">
+    <row r="546" spans="3:11" hidden="1">
       <c r="C546" t="s">
         <v>31</v>
       </c>
@@ -21782,7 +21712,7 @@
         <v>12マス</v>
       </c>
     </row>
-    <row r="547" spans="3:11">
+    <row r="547" spans="3:11" hidden="1">
       <c r="C547" t="s">
         <v>31</v>
       </c>
@@ -21817,7 +21747,7 @@
         <v>40マス</v>
       </c>
     </row>
-    <row r="548" spans="3:11">
+    <row r="548" spans="3:11" hidden="1">
       <c r="C548" t="s">
         <v>190</v>
       </c>
@@ -21852,7 +21782,7 @@
         <v>41マス</v>
       </c>
     </row>
-    <row r="549" spans="3:11">
+    <row r="549" spans="3:11" hidden="1">
       <c r="C549" t="s">
         <v>190</v>
       </c>
@@ -21887,7 +21817,7 @@
         <v>56マス</v>
       </c>
     </row>
-    <row r="550" spans="3:11">
+    <row r="550" spans="3:11" hidden="1">
       <c r="C550" t="s">
         <v>190</v>
       </c>
@@ -21922,7 +21852,7 @@
         <v>45マス</v>
       </c>
     </row>
-    <row r="551" spans="3:11">
+    <row r="551" spans="3:11" hidden="1">
       <c r="C551" t="s">
         <v>190</v>
       </c>
@@ -21957,7 +21887,7 @@
         <v>68マス</v>
       </c>
     </row>
-    <row r="552" spans="3:11">
+    <row r="552" spans="3:11" hidden="1">
       <c r="C552" t="s">
         <v>190</v>
       </c>
@@ -21992,7 +21922,7 @@
         <v>88マス</v>
       </c>
     </row>
-    <row r="553" spans="3:11">
+    <row r="553" spans="3:11" hidden="1">
       <c r="C553" t="s">
         <v>190</v>
       </c>
@@ -22027,7 +21957,7 @@
         <v>38マス</v>
       </c>
     </row>
-    <row r="554" spans="3:11">
+    <row r="554" spans="3:11" hidden="1">
       <c r="C554" t="s">
         <v>355</v>
       </c>
@@ -22065,12 +21995,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F2:H554">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>NOT(IFERROR(MATCH(F2,$A:$A,0)&gt;0,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C554">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>IFERROR(MATCH(C2,$A:$A,0)&gt;0,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
